--- a/assign1/doc/cpd_data.xlsx
+++ b/assign1/doc/cpd_data.xlsx
@@ -8,43 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniorama/Desktop/LEIC/6_SEM/CPD/g17/assign1/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F318708-733F-AB40-9AB7-3E9E0987A0E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4CE33-E2F5-8649-94AC-3E1F3616C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Times" sheetId="2" r:id="rId3"/>
+    <sheet name="Execution Time Comparisons" sheetId="4" r:id="rId2"/>
+    <sheet name="Time Analysis" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$A$3:$A$35</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Data!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Data!$L$4:$L$36</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">(Data!$D$4:$D$24,Data!$L$4:$L$36)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Data!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">(Data!$D$4:$D$24,Data!$L$4:$L$36)</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Data!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">(Data!$D$4:$D$24,Data!$L$4:$L$36)</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Data!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">(Data!$D$4:$D$24,Data!$L$4:$L$36)</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Data!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">(Data!$D$4:$D$24,Data!$L$4:$L$36)</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Data!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">(Data!$D$4:$D$24,Data!$L$4:$L$36)</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Data!$B$4:$B$24</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$3:$B$35</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$3:$C$35</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">Sheet1!$C$2</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">Sheet1!$C$3:$C$35</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">Sheet1!$A$2</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">Sheet1!$A$3:$A$35</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">Sheet1!$B$2</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">Sheet1!$B$3:$B$35</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -63,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
   <si>
     <t>OnMult C++</t>
   </si>
@@ -108,6 +80,18 @@
   </si>
   <si>
     <t>Line Multiplication</t>
+  </si>
+  <si>
+    <t>OnMultBlock</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Standard Multiplication</t>
   </si>
 </sst>
 </file>
@@ -163,6 +147,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -202,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -261,11 +246,40 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -318,6 +332,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Standard</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Multiplication - Python vs C++</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -358,7 +402,1250 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$2</c:f>
+              <c:f>'Execution Time Comparisons'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$B$3:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.236999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.023000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.037999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114.255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E65-5F4F-9558-C3B27A6AAB5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Comparisons'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$A$3:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$C$3:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1.7969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13.733000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.492000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>45.100999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>70.769000000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102.771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E65-5F4F-9558-C3B27A6AAB5B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2000032111"/>
+        <c:axId val="2000273695"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2000032111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44706035532795635"/>
+              <c:y val="0.82277608538628877"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000273695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2000273695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2000032111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Line Multiplication -</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Python vs C++</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Comparisons'!$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$A$27:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$B$27:$B$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.646000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4D9F-4941-9B1C-5EF2122C159E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Comparisons'!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$A$27:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$C$27:$C$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7919999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.221</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.774999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.57</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59.445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4D9F-4941-9B1C-5EF2122C159E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121663439"/>
+        <c:axId val="2121337247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121663439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44777310924369745"/>
+              <c:y val="0.84242010850145121"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121337247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121337247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121663439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Time C++</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> - Single Core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Time Analysis'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -393,7 +1680,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$35</c:f>
+              <c:f>'Time Analysis'!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -435,7 +1722,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$35</c:f>
+              <c:f>'Time Analysis'!$B$3:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -475,7 +1762,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'Time Analysis'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -510,7 +1797,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$35</c:f>
+              <c:f>'Time Analysis'!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -552,7 +1839,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$35</c:f>
+              <c:f>'Time Analysis'!$C$3:$C$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -810,400 +2097,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-PT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="8.1264216972878389E-2"/>
-          <c:y val="0.16712962962962963"/>
-          <c:w val="0.87426356080489942"/>
-          <c:h val="0.7542592592592593"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>C++ Regular Multiplication</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="33"/>
-                <c:pt idx="0">
-                  <c:v>600</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1400</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2200</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2600</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6144</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10240</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$C$3:$C$35,Sheet1!$B$3:$B$23)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="54"/>
-                <c:pt idx="0">
-                  <c:v>0.104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52800000000000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.4790000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.226</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0380000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10.103999999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>16.646000000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>40.503</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>136.88900000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>330.24299999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>636.11300000000006</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.189</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.095</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.1880000000000002</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>17.236999999999998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>38.023000000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>68.037999999999997</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>114.255</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E200-6343-808F-86D54B3D4940}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1305136592"/>
-        <c:axId val="1305138304"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1305136592"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1305138304"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1305138304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-PT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1305136592"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-PT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1245,6 +2138,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2316,27 +3249,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>97367</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>702734</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>46567</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA9BF8-FDCA-BA17-212F-1DDF365A4A7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{418D654D-3799-68C9-9EFD-65496D10F245}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2354,6 +3803,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>88899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C84262-D191-D7BE-D525-F67170F902A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2361,23 +3846,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>694267</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>850900</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287867</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255F9875-67B0-F4FE-B1F0-50C6F47AC1E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA9BF8-FDCA-BA17-212F-1DDF365A4A7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,8 +4086,8 @@
   </sheetPr>
   <dimension ref="A1:AP1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J36"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -48616,7 +50101,7 @@
     <mergeCell ref="U22:U24"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24 F4:F24 H4:H24 I4:I36 L4:L36 N4:N36 P4:P36 AC4:AC36 AE4:AE36 AG4:AG36 AK4:AK36 AM4:AM36 AO4:AP36 Y4:Y39 H28:H62 D28:D1002">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48625,30 +50110,466 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A5800-5FCA-194D-8569-9B1CEC98C6E1}">
-  <dimension ref="A2:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB20B9E0-B284-9841-AD90-2EF8F1599E54}">
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+    </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>14</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>600</v>
       </c>
+      <c r="B3" s="24">
+        <f>Data!D4</f>
+        <v>0.189</v>
+      </c>
+      <c r="C3" s="24">
+        <f>Data!D28</f>
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="12"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="24">
+        <f>Data!D7</f>
+        <v>1.095</v>
+      </c>
+      <c r="C6" s="24">
+        <f>Data!D31</f>
+        <v>5.7629999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="12"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="24">
+        <f>Data!D10</f>
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="C9" s="24">
+        <f>Data!D34</f>
+        <v>13.733000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="12"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
+        <v>1800</v>
+      </c>
+      <c r="B12" s="24">
+        <f>Data!D13</f>
+        <v>17.236999999999998</v>
+      </c>
+      <c r="C12" s="24">
+        <f>Data!D37</f>
+        <v>26.492000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="12"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
+        <v>2200</v>
+      </c>
+      <c r="B15" s="24">
+        <f>Data!D16</f>
+        <v>38.023000000000003</v>
+      </c>
+      <c r="C15" s="24">
+        <f>Data!D40</f>
+        <v>45.100999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="16">
+        <v>2600</v>
+      </c>
+      <c r="B18" s="24">
+        <f>Data!D19</f>
+        <v>68.037999999999997</v>
+      </c>
+      <c r="C18" s="24">
+        <f>Data!D43</f>
+        <v>70.769000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="16">
+        <v>3000</v>
+      </c>
+      <c r="B21" s="24">
+        <f>Data!D22</f>
+        <v>114.255</v>
+      </c>
+      <c r="C21" s="24">
+        <f>Data!D46</f>
+        <v>102.771</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
+        <v>600</v>
+      </c>
+      <c r="B27" s="26">
+        <f>Data!L4</f>
+        <v>0.104</v>
+      </c>
+      <c r="C27" s="26">
+        <f>Data!H28</f>
+        <v>0.68799999999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B30" s="26">
+        <f>Data!L7</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C30" s="26">
+        <f>Data!H31</f>
+        <v>2.7919999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" s="16">
+        <v>1400</v>
+      </c>
+      <c r="B33" s="26">
+        <f>Data!L10</f>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="C33" s="26">
+        <f>Data!H34</f>
+        <v>8.0760000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="16">
+        <v>1800</v>
+      </c>
+      <c r="B36" s="26">
+        <f>Data!L13</f>
+        <v>3.226</v>
+      </c>
+      <c r="C36" s="26">
+        <f>Data!H37</f>
+        <v>13.221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" s="16">
+        <v>2200</v>
+      </c>
+      <c r="B39" s="26">
+        <f>Data!L16</f>
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C39" s="26">
+        <f>Data!H40</f>
+        <v>23.774999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" s="12"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" s="12"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" s="16">
+        <v>2600</v>
+      </c>
+      <c r="B42" s="26">
+        <f>Data!L19</f>
+        <v>10.103999999999999</v>
+      </c>
+      <c r="C42" s="26">
+        <f>Data!H43</f>
+        <v>38.57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" s="12"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" s="12"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" s="16">
+        <v>3000</v>
+      </c>
+      <c r="B45" s="26">
+        <f>Data!L22</f>
+        <v>16.646000000000001</v>
+      </c>
+      <c r="C45" s="26">
+        <f>Data!H46</f>
+        <v>59.445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" s="12"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" s="12"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:B23">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(B3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C23">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(C3))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A5800-5FCA-194D-8569-9B1CEC98C6E1}">
+  <dimension ref="A2:D35"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="16">
+        <v>600</v>
+      </c>
       <c r="B3" s="20">
         <f>Data!D4</f>
         <v>0.189</v>
@@ -48658,17 +50579,17 @@
         <v>0.104</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>1000</v>
       </c>
@@ -48681,17 +50602,17 @@
         <v>0.52800000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>1400</v>
       </c>
@@ -48704,17 +50625,17 @@
         <v>1.4790000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>1800</v>
       </c>
@@ -48727,17 +50648,17 @@
         <v>3.226</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>2200</v>
       </c>
@@ -48750,7 +50671,7 @@
         <v>6.0380000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="20"/>
       <c r="C16" s="20"/>
@@ -48925,22 +50846,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/assign1/doc/cpd_data.xlsx
+++ b/assign1/doc/cpd_data.xlsx
@@ -8,15 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniorama/Desktop/LEIC/6_SEM/CPD/g17/assign1/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF4CE33-E2F5-8649-94AC-3E1F3616C852}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9283F50D-7BC5-5F4D-A3A1-89833113C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Execution Time Comparisons" sheetId="4" r:id="rId2"/>
-    <sheet name="Time Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Multi-core performance analysis" sheetId="5" r:id="rId3"/>
+    <sheet name="Time Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Multi-core performance analysis'!$A$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Multi-core performance analysis'!$A$3:$A$35</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Multi-core performance analysis'!$E$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Multi-core performance analysis'!$E$3:$E$35</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Multi-core performance analysis'!$F$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Multi-core performance analysis'!$F$3:$F$35</definedName>
+    <definedName name="_xlchart.v2.10" hidden="1">'Multi-core performance analysis'!$F$2</definedName>
+    <definedName name="_xlchart.v2.11" hidden="1">'Multi-core performance analysis'!$F$3:$F$35</definedName>
+    <definedName name="_xlchart.v2.6" hidden="1">'Multi-core performance analysis'!$A$2</definedName>
+    <definedName name="_xlchart.v2.7" hidden="1">'Multi-core performance analysis'!$A$3:$A$35</definedName>
+    <definedName name="_xlchart.v2.8" hidden="1">'Multi-core performance analysis'!$E$2</definedName>
+    <definedName name="_xlchart.v2.9" hidden="1">'Multi-core performance analysis'!$E$3:$E$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
   <si>
     <t>OnMult C++</t>
   </si>
@@ -93,12 +108,42 @@
   <si>
     <t>Standard Multiplication</t>
   </si>
+  <si>
+    <t>Line Multiplication - C++</t>
+  </si>
+  <si>
+    <t>Single Core - Time (s)</t>
+  </si>
+  <si>
+    <t>Multi-Core v1 - Time (s)</t>
+  </si>
+  <si>
+    <t>Multi-Core v2 - Time (s)</t>
+  </si>
+  <si>
+    <t>Multi-Core v1 - SpeedUp</t>
+  </si>
+  <si>
+    <t>Multi-Core v2 - SpeedUp</t>
+  </si>
+  <si>
+    <t>Multi-Core v1 - Efficiency</t>
+  </si>
+  <si>
+    <t>Multi-Core v2 - Efficiency</t>
+  </si>
+  <si>
+    <t>Nº Cores</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -154,6 +199,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -187,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -217,77 +269,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1595,6 +1627,1416 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
+              <a:t>C++ Line</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Multiplication - Single vs Multi-core</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-core performance analysis'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Core - Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$B$3:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>330.24299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>636.11300000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8F8C-C444-A894-B019FC4594C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-core performance analysis'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-Core v1 - Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$C$3:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.55400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>27.321999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72.872</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170.45500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8F8C-C444-A894-B019FC4594C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-core performance analysis'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-Core v2 - Time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$D$3:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.353</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5250000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.2189999999999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.082999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>104.036</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>256.863</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>505.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8F8C-C444-A894-B019FC4594C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2146715455"/>
+        <c:axId val="2146688623"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2146715455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Sizes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2146688623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2146688623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2146715455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>C++ Line Multiplication - Single vs Multi-core SpeedUp</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-core performance analysis'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-Core v1 - SpeedUp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$E$3:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>6.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.7809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0620000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.89</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.01</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.532</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.7320000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E02-B04D-BA59-787B562A83EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Multi-core performance analysis'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multi-Core v2 - SpeedUp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$A$3:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Multi-core performance analysis'!$F$3:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.093</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0569999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.093</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0960000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.224</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.224</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.286</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2569999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5E02-B04D-BA59-787B562A83EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121472943"/>
+        <c:axId val="2121351327"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121472943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Matrix Sizes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46196937882764655"/>
+              <c:y val="0.8514712273868994"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121351327"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121351327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>SpeedUp</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.5555555555555555E-2"/>
+              <c:y val="0.36376428752857504"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2121472943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
               <a:t>Time C++</a:t>
             </a:r>
             <a:r>
@@ -2178,6 +3620,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3765,6 +5287,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3843,6 +6397,83 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4232</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>105833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1151465</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AB8DE2-BA21-A8CD-2493-DCDCD2AA0550}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5905D525-DB33-DC9E-FA37-E29BA48FB579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4086,19 +6717,44 @@
   </sheetPr>
   <dimension ref="A1:AP1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="25" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="2.6640625" customWidth="1"/>
+    <col min="27" max="27" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="2.6640625" customWidth="1"/>
+    <col min="35" max="35" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4148,56 +6804,56 @@
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
       <c r="I2" s="1"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
       <c r="Q2" s="2"/>
-      <c r="R2" s="19" t="s">
+      <c r="R2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
       <c r="Z2" s="1"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
       <c r="AH2" s="2"/>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
       <c r="AP2" s="1"/>
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4205,34 +6861,34 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="2"/>
       <c r="J3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="12"/>
-      <c r="M3" s="16" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="12"/>
+      <c r="P3" s="14"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="4" t="s">
         <v>5</v>
@@ -4240,178 +6896,178 @@
       <c r="S3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="12"/>
-      <c r="V3" s="16" t="s">
+      <c r="U3" s="14"/>
+      <c r="V3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="12"/>
-      <c r="X3" s="16" t="s">
+      <c r="W3" s="14"/>
+      <c r="X3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Y3" s="12"/>
+      <c r="Y3" s="14"/>
       <c r="Z3" s="1"/>
       <c r="AA3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AB3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="16" t="s">
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="16" t="s">
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AG3" s="12"/>
+      <c r="AG3" s="14"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AJ3" s="16" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="16" t="s">
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="16" t="s">
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AO3" s="12"/>
+      <c r="AO3" s="14"/>
       <c r="AP3" s="2"/>
     </row>
     <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>600</v>
       </c>
       <c r="C4" s="5">
         <v>0.189</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="16">
         <f>ROUND(AVERAGE(C4:C6), 3)</f>
         <v>0.189</v>
       </c>
       <c r="E4" s="6">
         <v>245000000</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="15">
         <f>ROUND(AVERAGE(E4:E6),3)</f>
         <v>245000000</v>
       </c>
       <c r="G4" s="7">
         <v>40305131</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="16">
         <f>ROUND(AVERAGE(G4:G6),3)</f>
         <v>39747016</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="16">
+      <c r="J4" s="13">
         <v>600</v>
       </c>
       <c r="K4" s="8">
         <v>0.107</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="16">
         <f>ROUND(AVERAGE(K4:K6),3)</f>
         <v>0.104</v>
       </c>
       <c r="M4" s="8">
         <v>27115696</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="16">
         <f>ROUND(AVERAGE(M4:M6),3)</f>
         <v>27112936.666999999</v>
       </c>
       <c r="O4" s="8">
         <v>57597990</v>
       </c>
-      <c r="P4" s="16">
+      <c r="P4" s="13">
         <f>ROUND(AVERAGE(O4:O6),3)</f>
         <v>56929105.332999997</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="16">
+      <c r="R4" s="13">
         <v>4096</v>
       </c>
-      <c r="S4" s="17">
+      <c r="S4" s="19">
         <v>128</v>
       </c>
       <c r="T4" s="5">
         <v>35.786999999999999</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="20">
         <f>ROUND(AVERAGE(T4:T6),3)</f>
         <v>35.47</v>
       </c>
       <c r="V4" s="8">
         <v>9882983583</v>
       </c>
-      <c r="W4" s="11">
+      <c r="W4" s="18">
         <f>AVERAGE(V4:V6)</f>
         <v>9802680558.666666</v>
       </c>
       <c r="X4" s="5">
         <v>32964132814</v>
       </c>
-      <c r="Y4" s="11">
+      <c r="Y4" s="18">
         <f>AVERAGE(X4:X6)</f>
         <v>32909645777.666668</v>
       </c>
       <c r="Z4" s="1"/>
-      <c r="AA4" s="16">
+      <c r="AA4" s="13">
         <v>600</v>
       </c>
       <c r="AB4" s="8">
         <v>1.6E-2</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="16">
         <f>ROUND(AVERAGE(AB4:AB6),3)</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AD4" s="8">
         <v>3398624</v>
       </c>
-      <c r="AE4" s="18">
+      <c r="AE4" s="16">
         <f>ROUND(AVERAGE(AD4:AD6),3)</f>
         <v>3398104.3330000001</v>
       </c>
       <c r="AF4" s="8">
         <v>7110092</v>
       </c>
-      <c r="AG4" s="18">
+      <c r="AG4" s="16">
         <f>ROUND(AVERAGE(AF4:AF6),3)</f>
         <v>7137844.3329999996</v>
       </c>
       <c r="AH4" s="2"/>
-      <c r="AI4" s="16">
+      <c r="AI4" s="13">
         <v>600</v>
       </c>
       <c r="AJ4" s="8">
         <v>0.157</v>
       </c>
-      <c r="AK4" s="18">
+      <c r="AK4" s="16">
         <f>ROUND(AVERAGE(AJ4:AJ6),3)</f>
         <v>0.16</v>
       </c>
       <c r="AL4" s="8">
         <v>8404587</v>
       </c>
-      <c r="AM4" s="18">
+      <c r="AM4" s="16">
         <f>ROUND(AVERAGE(AL4:AL6),3)</f>
         <v>8454263.3330000006</v>
       </c>
       <c r="AN4" s="8">
         <v>33926641</v>
       </c>
-      <c r="AO4" s="18">
+      <c r="AO4" s="16">
         <f>ROUND(AVERAGE(AN4:AN6),3)</f>
         <v>33985889.332999997</v>
       </c>
@@ -4419,276 +7075,276 @@
     </row>
     <row r="5" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
-      <c r="B5" s="12"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="5">
         <v>0.189</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="6">
         <v>245000000</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="6">
         <v>40393896</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="14"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="8">
         <v>0.105</v>
       </c>
-      <c r="L5" s="12"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="8">
         <v>27111770</v>
       </c>
-      <c r="N5" s="12"/>
+      <c r="N5" s="14"/>
       <c r="O5" s="8">
         <v>56495712</v>
       </c>
-      <c r="P5" s="12"/>
+      <c r="P5" s="14"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
       <c r="T5" s="5">
         <v>35.052</v>
       </c>
-      <c r="U5" s="12"/>
+      <c r="U5" s="14"/>
       <c r="V5" s="5">
         <v>9725695609</v>
       </c>
-      <c r="W5" s="12"/>
+      <c r="W5" s="14"/>
       <c r="X5" s="5">
         <v>32886691324</v>
       </c>
-      <c r="Y5" s="12"/>
+      <c r="Y5" s="14"/>
       <c r="Z5" s="1"/>
-      <c r="AA5" s="12"/>
+      <c r="AA5" s="14"/>
       <c r="AB5" s="8">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="AC5" s="12"/>
+      <c r="AC5" s="14"/>
       <c r="AD5" s="8">
         <v>3397690</v>
       </c>
-      <c r="AE5" s="12"/>
+      <c r="AE5" s="14"/>
       <c r="AF5" s="8">
         <v>7134977</v>
       </c>
-      <c r="AG5" s="12"/>
+      <c r="AG5" s="14"/>
       <c r="AH5" s="2"/>
-      <c r="AI5" s="12"/>
+      <c r="AI5" s="14"/>
       <c r="AJ5" s="8">
         <v>0.16400000000000001</v>
       </c>
-      <c r="AK5" s="12"/>
+      <c r="AK5" s="14"/>
       <c r="AL5" s="8">
         <v>8531748</v>
       </c>
-      <c r="AM5" s="12"/>
+      <c r="AM5" s="14"/>
       <c r="AN5" s="8">
         <v>33805761</v>
       </c>
-      <c r="AO5" s="12"/>
+      <c r="AO5" s="14"/>
       <c r="AP5" s="2"/>
     </row>
     <row r="6" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
-      <c r="B6" s="12"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="5">
         <v>0.19</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="6">
         <v>245000000</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="6">
         <v>38542021</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="12"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="8">
         <v>0.1</v>
       </c>
-      <c r="L6" s="12"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="8">
         <v>27111344</v>
       </c>
-      <c r="N6" s="12"/>
+      <c r="N6" s="14"/>
       <c r="O6" s="8">
         <v>56693614</v>
       </c>
-      <c r="P6" s="12"/>
+      <c r="P6" s="14"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
       <c r="T6" s="5">
         <v>35.570999999999998</v>
       </c>
-      <c r="U6" s="12"/>
+      <c r="U6" s="14"/>
       <c r="V6" s="5">
         <v>9799362484</v>
       </c>
-      <c r="W6" s="12"/>
+      <c r="W6" s="14"/>
       <c r="X6" s="5">
         <v>32878113195</v>
       </c>
-      <c r="Y6" s="12"/>
+      <c r="Y6" s="14"/>
       <c r="Z6" s="1"/>
-      <c r="AA6" s="12"/>
+      <c r="AA6" s="14"/>
       <c r="AB6" s="8">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC6" s="12"/>
+      <c r="AC6" s="14"/>
       <c r="AD6" s="8">
         <v>3397999</v>
       </c>
-      <c r="AE6" s="12"/>
+      <c r="AE6" s="14"/>
       <c r="AF6" s="8">
         <v>7168464</v>
       </c>
-      <c r="AG6" s="12"/>
+      <c r="AG6" s="14"/>
       <c r="AH6" s="2"/>
-      <c r="AI6" s="12"/>
+      <c r="AI6" s="14"/>
       <c r="AJ6" s="8">
         <v>0.159</v>
       </c>
-      <c r="AK6" s="12"/>
+      <c r="AK6" s="14"/>
       <c r="AL6" s="8">
         <v>8426455</v>
       </c>
-      <c r="AM6" s="12"/>
+      <c r="AM6" s="14"/>
       <c r="AN6" s="8">
         <v>34225266</v>
       </c>
-      <c r="AO6" s="12"/>
+      <c r="AO6" s="14"/>
       <c r="AP6" s="2"/>
     </row>
     <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
-      <c r="B7" s="16">
+      <c r="B7" s="13">
         <v>1000</v>
       </c>
       <c r="C7" s="5">
         <v>1.044</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="16">
         <f>ROUND(AVERAGE(C7:C9), 3)</f>
         <v>1.095</v>
       </c>
       <c r="E7" s="6">
         <v>1230000000</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="15">
         <f>ROUND(AVERAGE(E7:E9),3)</f>
         <v>1223333333.3329999</v>
       </c>
       <c r="G7" s="6">
         <v>197000000</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="15">
         <f>ROUND(AVERAGE(G7:G9),3)</f>
         <v>211666666.667</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="16">
+      <c r="J7" s="13">
         <v>1000</v>
       </c>
       <c r="K7" s="8">
         <v>0.54600000000000004</v>
       </c>
-      <c r="L7" s="18">
+      <c r="L7" s="16">
         <f>ROUND(AVERAGE(K7:K9),3)</f>
         <v>0.52800000000000002</v>
       </c>
       <c r="M7" s="9">
         <v>126000000</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="15">
         <f>ROUND(AVERAGE(M7:M9),3)</f>
         <v>126000000</v>
       </c>
       <c r="O7" s="9">
         <v>255000000</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="17">
         <f>ROUND(AVERAGE(O7:O9),3)</f>
         <v>258666666.667</v>
       </c>
       <c r="Q7" s="2"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="17">
+      <c r="R7" s="14"/>
+      <c r="S7" s="19">
         <v>256</v>
       </c>
       <c r="T7" s="5">
         <v>33.552999999999997</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="20">
         <f>ROUND(AVERAGE(T7:T9),3)</f>
         <v>33.968000000000004</v>
       </c>
       <c r="V7" s="5">
         <v>9122063516</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="18">
         <f>AVERAGE(V7:V9)</f>
         <v>9131096463.666666</v>
       </c>
       <c r="X7" s="5">
         <v>23362881415</v>
       </c>
-      <c r="Y7" s="11">
+      <c r="Y7" s="18">
         <f>AVERAGE(X7:X9)</f>
         <v>23221963006</v>
       </c>
       <c r="Z7" s="1"/>
-      <c r="AA7" s="16">
+      <c r="AA7" s="13">
         <v>1000</v>
       </c>
       <c r="AB7" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AC7" s="18">
+      <c r="AC7" s="16">
         <f>ROUND(AVERAGE(AB7:AB9),3)</f>
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="AD7" s="9">
         <v>15723949</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="15">
         <f>ROUND(AVERAGE(AD7:AD9),3)</f>
         <v>15723141.333000001</v>
       </c>
       <c r="AF7" s="9">
         <v>32784105</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="AG7" s="15">
         <f>ROUND(AVERAGE(AF7:AF9),3)</f>
         <v>32736727</v>
       </c>
       <c r="AH7" s="2"/>
-      <c r="AI7" s="16">
+      <c r="AI7" s="13">
         <v>1000</v>
       </c>
       <c r="AJ7" s="8">
         <v>0.47699999999999998</v>
       </c>
-      <c r="AK7" s="18">
+      <c r="AK7" s="16">
         <f>ROUND(AVERAGE(AJ7:AJ9),3)</f>
         <v>0.48399999999999999</v>
       </c>
       <c r="AL7" s="9">
         <v>30159552</v>
       </c>
-      <c r="AM7" s="13">
+      <c r="AM7" s="15">
         <f>ROUND(AVERAGE(AL7:AL9),3)</f>
         <v>30010682.666999999</v>
       </c>
       <c r="AN7" s="9">
         <v>112000000</v>
       </c>
-      <c r="AO7" s="13">
+      <c r="AO7" s="15">
         <f>ROUND(AVERAGE(AN7:AN9),3)</f>
         <v>113000000</v>
       </c>
@@ -4696,276 +7352,276 @@
     </row>
     <row r="8" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
-      <c r="B8" s="12"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="5">
         <v>1.143</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6">
         <v>1220000000</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="6">
         <v>208000000</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="12"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="8">
         <v>0.58799999999999997</v>
       </c>
-      <c r="L8" s="12"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="9">
         <v>126000000</v>
       </c>
-      <c r="N8" s="12"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="9">
         <v>259000000</v>
       </c>
-      <c r="P8" s="12"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="12"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
       <c r="T8" s="5">
         <v>34.984999999999999</v>
       </c>
-      <c r="U8" s="12"/>
+      <c r="U8" s="14"/>
       <c r="V8" s="5">
         <v>9133859211</v>
       </c>
-      <c r="W8" s="12"/>
+      <c r="W8" s="14"/>
       <c r="X8" s="5">
         <v>23030960818</v>
       </c>
-      <c r="Y8" s="12"/>
+      <c r="Y8" s="14"/>
       <c r="Z8" s="1"/>
-      <c r="AA8" s="12"/>
+      <c r="AA8" s="14"/>
       <c r="AB8" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AC8" s="12"/>
+      <c r="AC8" s="14"/>
       <c r="AD8" s="9">
         <v>15723530</v>
       </c>
-      <c r="AE8" s="12"/>
+      <c r="AE8" s="14"/>
       <c r="AF8" s="9">
         <v>32710514</v>
       </c>
-      <c r="AG8" s="12"/>
+      <c r="AG8" s="14"/>
       <c r="AH8" s="2"/>
-      <c r="AI8" s="12"/>
+      <c r="AI8" s="14"/>
       <c r="AJ8" s="8">
         <v>0.49399999999999999</v>
       </c>
-      <c r="AK8" s="12"/>
+      <c r="AK8" s="14"/>
       <c r="AL8" s="9">
         <v>29821871</v>
       </c>
-      <c r="AM8" s="12"/>
+      <c r="AM8" s="14"/>
       <c r="AN8" s="9">
         <v>113000000</v>
       </c>
-      <c r="AO8" s="12"/>
+      <c r="AO8" s="14"/>
       <c r="AP8" s="2"/>
     </row>
     <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="12"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="5">
         <v>1.099</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6">
         <v>1220000000</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="6">
         <v>230000000</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="12"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="8">
         <v>0.45100000000000001</v>
       </c>
-      <c r="L9" s="12"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="9">
         <v>126000000</v>
       </c>
-      <c r="N9" s="12"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="9">
         <v>262000000</v>
       </c>
-      <c r="P9" s="12"/>
+      <c r="P9" s="14"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
       <c r="T9" s="5">
         <v>33.365000000000002</v>
       </c>
-      <c r="U9" s="12"/>
+      <c r="U9" s="14"/>
       <c r="V9" s="5">
         <v>9137366664</v>
       </c>
-      <c r="W9" s="12"/>
+      <c r="W9" s="14"/>
       <c r="X9" s="5">
         <v>23272046785</v>
       </c>
-      <c r="Y9" s="12"/>
+      <c r="Y9" s="14"/>
       <c r="Z9" s="1"/>
-      <c r="AA9" s="12"/>
+      <c r="AA9" s="14"/>
       <c r="AB9" s="8">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="AC9" s="12"/>
+      <c r="AC9" s="14"/>
       <c r="AD9" s="9">
         <v>15721945</v>
       </c>
-      <c r="AE9" s="12"/>
+      <c r="AE9" s="14"/>
       <c r="AF9" s="9">
         <v>32715562</v>
       </c>
-      <c r="AG9" s="12"/>
+      <c r="AG9" s="14"/>
       <c r="AH9" s="2"/>
-      <c r="AI9" s="12"/>
+      <c r="AI9" s="14"/>
       <c r="AJ9" s="8">
         <v>0.48099999999999998</v>
       </c>
-      <c r="AK9" s="12"/>
+      <c r="AK9" s="14"/>
       <c r="AL9" s="9">
         <v>30050625</v>
       </c>
-      <c r="AM9" s="12"/>
+      <c r="AM9" s="14"/>
       <c r="AN9" s="9">
         <v>114000000</v>
       </c>
-      <c r="AO9" s="12"/>
+      <c r="AO9" s="14"/>
       <c r="AP9" s="2"/>
     </row>
     <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
-      <c r="B10" s="16">
+      <c r="B10" s="13">
         <v>1400</v>
       </c>
       <c r="C10" s="5">
         <v>3.153</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="16">
         <f>ROUND(AVERAGE(C10:C12), 3)</f>
         <v>3.1880000000000002</v>
       </c>
       <c r="E10" s="6">
         <v>3490000000</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="15">
         <f>ROUND(AVERAGE(E10:E12),3)</f>
         <v>3496666666.6669998</v>
       </c>
       <c r="G10" s="6">
         <v>639000000</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="15">
         <f>ROUND(AVERAGE(G10:G12),3)</f>
         <v>810666666.66700006</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="16">
+      <c r="J10" s="13">
         <v>1400</v>
       </c>
       <c r="K10" s="8">
         <v>1.486</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="16">
         <f>ROUND(AVERAGE(K10:K12),3)</f>
         <v>1.4790000000000001</v>
       </c>
       <c r="M10" s="9">
         <v>346000000</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="15">
         <f>ROUND(AVERAGE(M10:M12),3)</f>
         <v>346000000</v>
       </c>
       <c r="O10" s="9">
         <v>702000000</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="17">
         <f>ROUND(AVERAGE(O10:O12),3)</f>
         <v>701333333.33299994</v>
       </c>
       <c r="Q10" s="2"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="17">
+      <c r="R10" s="14"/>
+      <c r="S10" s="19">
         <v>512</v>
       </c>
       <c r="T10" s="5">
         <v>38.893999999999998</v>
       </c>
-      <c r="U10" s="15">
+      <c r="U10" s="20">
         <f>ROUND(AVERAGE(T10:T12),3)</f>
         <v>38.792000000000002</v>
       </c>
       <c r="V10" s="5">
         <v>8763414581</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="18">
         <f>AVERAGE(V10:V12)</f>
         <v>8762353704</v>
       </c>
       <c r="X10" s="5">
         <v>18973113481</v>
       </c>
-      <c r="Y10" s="11">
+      <c r="Y10" s="18">
         <f>AVERAGE(X10:X12)</f>
         <v>19057024440.333332</v>
       </c>
       <c r="Z10" s="1"/>
-      <c r="AA10" s="16">
+      <c r="AA10" s="13">
         <v>1400</v>
       </c>
       <c r="AB10" s="8">
         <v>0.22</v>
       </c>
-      <c r="AC10" s="18">
+      <c r="AC10" s="16">
         <f>ROUND(AVERAGE(AB10:AB12),3)</f>
         <v>0.219</v>
       </c>
       <c r="AD10" s="9">
         <v>43268613</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AE10" s="15">
         <f>ROUND(AVERAGE(AD10:AD12),3)</f>
         <v>43268945.332999997</v>
       </c>
       <c r="AF10" s="9">
         <v>86785902</v>
       </c>
-      <c r="AG10" s="13">
+      <c r="AG10" s="15">
         <f>ROUND(AVERAGE(AF10:AF12),3)</f>
         <v>86497122.333000004</v>
       </c>
       <c r="AH10" s="2"/>
-      <c r="AI10" s="16">
+      <c r="AI10" s="13">
         <v>1400</v>
       </c>
       <c r="AJ10" s="8">
         <v>1.2849999999999999</v>
       </c>
-      <c r="AK10" s="18">
+      <c r="AK10" s="16">
         <f>ROUND(AVERAGE(AJ10:AJ12),3)</f>
         <v>1.353</v>
       </c>
       <c r="AL10" s="9">
         <v>71816052</v>
       </c>
-      <c r="AM10" s="13">
+      <c r="AM10" s="15">
         <f>ROUND(AVERAGE(AL10:AL12),3)</f>
         <v>71800212.666999996</v>
       </c>
       <c r="AN10" s="9">
         <v>231000000</v>
       </c>
-      <c r="AO10" s="13">
+      <c r="AO10" s="15">
         <f>ROUND(AVERAGE(AN10:AN12),3)</f>
         <v>230000000</v>
       </c>
@@ -4973,278 +7629,278 @@
     </row>
     <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
-      <c r="B11" s="12"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="5">
         <v>3.198</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="6">
         <v>3500000000</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="14"/>
       <c r="G11" s="6">
         <v>1000000000</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="12"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="8">
         <v>1.4710000000000001</v>
       </c>
-      <c r="L11" s="12"/>
+      <c r="L11" s="14"/>
       <c r="M11" s="9">
         <v>346000000</v>
       </c>
-      <c r="N11" s="12"/>
+      <c r="N11" s="14"/>
       <c r="O11" s="9">
         <v>698000000</v>
       </c>
-      <c r="P11" s="12"/>
+      <c r="P11" s="14"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
       <c r="T11" s="5">
         <v>38.994</v>
       </c>
-      <c r="U11" s="12"/>
+      <c r="U11" s="14"/>
       <c r="V11" s="5">
         <v>8760664951</v>
       </c>
-      <c r="W11" s="12"/>
+      <c r="W11" s="14"/>
       <c r="X11" s="5">
         <v>19177759503</v>
       </c>
-      <c r="Y11" s="12"/>
+      <c r="Y11" s="14"/>
       <c r="Z11" s="1"/>
-      <c r="AA11" s="12"/>
+      <c r="AA11" s="14"/>
       <c r="AB11" s="8">
         <v>0.222</v>
       </c>
-      <c r="AC11" s="12"/>
+      <c r="AC11" s="14"/>
       <c r="AD11" s="9">
         <v>43269773</v>
       </c>
-      <c r="AE11" s="12"/>
+      <c r="AE11" s="14"/>
       <c r="AF11" s="9">
         <v>86305041</v>
       </c>
-      <c r="AG11" s="12"/>
+      <c r="AG11" s="14"/>
       <c r="AH11" s="2"/>
-      <c r="AI11" s="12"/>
+      <c r="AI11" s="14"/>
       <c r="AJ11" s="8">
         <v>1.2989999999999999</v>
       </c>
-      <c r="AK11" s="12"/>
+      <c r="AK11" s="14"/>
       <c r="AL11" s="9">
         <v>71667540</v>
       </c>
-      <c r="AM11" s="12"/>
+      <c r="AM11" s="14"/>
       <c r="AN11" s="9">
         <v>233000000</v>
       </c>
-      <c r="AO11" s="12"/>
+      <c r="AO11" s="14"/>
       <c r="AP11" s="2"/>
     </row>
     <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="5">
         <v>3.2120000000000002</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="6">
         <v>3500000000</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="14"/>
       <c r="G12" s="6">
         <v>793000000</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="14"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="12"/>
+      <c r="J12" s="14"/>
       <c r="K12" s="8">
         <v>1.48</v>
       </c>
-      <c r="L12" s="12"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="9">
         <v>346000000</v>
       </c>
-      <c r="N12" s="12"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="9">
         <v>704000000</v>
       </c>
-      <c r="P12" s="12"/>
+      <c r="P12" s="14"/>
       <c r="Q12" s="2"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
       <c r="T12" s="5">
         <v>38.487000000000002</v>
       </c>
-      <c r="U12" s="12"/>
+      <c r="U12" s="14"/>
       <c r="V12" s="5">
         <v>8762981580</v>
       </c>
-      <c r="W12" s="12"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="5">
         <v>19020200337</v>
       </c>
-      <c r="Y12" s="12"/>
+      <c r="Y12" s="14"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="12"/>
+      <c r="AA12" s="14"/>
       <c r="AB12" s="8">
         <v>0.215</v>
       </c>
-      <c r="AC12" s="12"/>
+      <c r="AC12" s="14"/>
       <c r="AD12" s="9">
         <v>43268450</v>
       </c>
-      <c r="AE12" s="12"/>
+      <c r="AE12" s="14"/>
       <c r="AF12" s="9">
         <v>86400424</v>
       </c>
-      <c r="AG12" s="12"/>
+      <c r="AG12" s="14"/>
       <c r="AH12" s="2"/>
-      <c r="AI12" s="12"/>
+      <c r="AI12" s="14"/>
       <c r="AJ12" s="8">
         <v>1.4750000000000001</v>
       </c>
-      <c r="AK12" s="12"/>
+      <c r="AK12" s="14"/>
       <c r="AL12" s="9">
         <v>71917046</v>
       </c>
-      <c r="AM12" s="12"/>
+      <c r="AM12" s="14"/>
       <c r="AN12" s="9">
         <v>226000000</v>
       </c>
-      <c r="AO12" s="12"/>
+      <c r="AO12" s="14"/>
       <c r="AP12" s="2"/>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
-      <c r="B13" s="16">
+      <c r="B13" s="13">
         <v>1800</v>
       </c>
       <c r="C13" s="5">
         <v>17.222000000000001</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="16">
         <f>ROUND(AVERAGE(C13:C15), 3)</f>
         <v>17.236999999999998</v>
       </c>
       <c r="E13" s="6">
         <v>9080000000</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="15">
         <f>ROUND(AVERAGE(E13:E15),3)</f>
         <v>9086666666.6669998</v>
       </c>
       <c r="G13" s="6">
         <v>5380000000</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="15">
         <f>ROUND(AVERAGE(G13:G15),3)</f>
         <v>5130000000</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <v>1800</v>
       </c>
       <c r="K13" s="8">
         <v>3.2109999999999999</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="16">
         <f>ROUND(AVERAGE(K13:K15),3)</f>
         <v>3.226</v>
       </c>
       <c r="M13" s="9">
         <v>745000000</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="15">
         <f>ROUND(AVERAGE(M13:M15),3)</f>
         <v>745000000</v>
       </c>
       <c r="O13" s="9">
         <v>1420000000</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="17">
         <f>ROUND(AVERAGE(O13:O15),3)</f>
         <v>1420000000</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="16">
+      <c r="R13" s="13">
         <v>6144</v>
       </c>
-      <c r="S13" s="17">
+      <c r="S13" s="19">
         <v>128</v>
       </c>
       <c r="T13" s="5">
         <v>116.18</v>
       </c>
-      <c r="U13" s="15">
+      <c r="U13" s="20">
         <f>ROUND(AVERAGE(T13:T15),3)</f>
         <v>116.95099999999999</v>
       </c>
       <c r="V13" s="5">
         <v>33017698633</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="18">
         <f>AVERAGE(V13:V15)</f>
         <v>32979617113</v>
       </c>
       <c r="X13" s="5">
         <v>111251925252</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="18">
         <f>AVERAGE(X13:X15)</f>
         <v>111544869355.33333</v>
       </c>
       <c r="Z13" s="1"/>
-      <c r="AA13" s="16">
+      <c r="AA13" s="13">
         <v>1800</v>
       </c>
       <c r="AB13" s="8">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AC13" s="18">
+      <c r="AC13" s="16">
         <f>ROUND(AVERAGE(AB13:AB15),3)</f>
         <v>0.55400000000000005</v>
       </c>
       <c r="AD13" s="9">
         <v>93180668</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13" s="15">
         <f>ROUND(AVERAGE(AD13:AD15),3)</f>
         <v>148335366.333</v>
       </c>
       <c r="AF13" s="9">
         <v>181856324</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AG13" s="15">
         <f>ROUND(AVERAGE(AF13:AF15),3)</f>
         <v>225244141</v>
       </c>
       <c r="AH13" s="2"/>
-      <c r="AI13" s="16">
+      <c r="AI13" s="13">
         <v>1800</v>
       </c>
       <c r="AJ13" s="8">
         <v>3.1560000000000001</v>
       </c>
-      <c r="AK13" s="18">
+      <c r="AK13" s="16">
         <f>ROUND(AVERAGE(AJ13:AJ15),3)</f>
         <v>3.0510000000000002</v>
       </c>
       <c r="AL13" s="9">
         <v>138000000</v>
       </c>
-      <c r="AM13" s="13">
+      <c r="AM13" s="15">
         <f>ROUND(AVERAGE(AL13:AL15),3)</f>
         <v>138000000</v>
       </c>
       <c r="AN13" s="9">
         <v>359000000</v>
       </c>
-      <c r="AO13" s="13">
+      <c r="AO13" s="15">
         <f>ROUND(AVERAGE(AN13:AN15),3)</f>
         <v>359666666.667</v>
       </c>
@@ -5252,276 +7908,276 @@
     </row>
     <row r="14" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
-      <c r="B14" s="12"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="5">
         <v>17.416</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="6">
         <v>9090000000</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="6">
         <v>4970000000</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="12"/>
+      <c r="J14" s="14"/>
       <c r="K14" s="8">
         <v>3.242</v>
       </c>
-      <c r="L14" s="12"/>
+      <c r="L14" s="14"/>
       <c r="M14" s="9">
         <v>745000000</v>
       </c>
-      <c r="N14" s="12"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="9">
         <v>1430000000</v>
       </c>
-      <c r="P14" s="12"/>
+      <c r="P14" s="14"/>
       <c r="Q14" s="2"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="5">
         <v>117.694</v>
       </c>
-      <c r="U14" s="12"/>
+      <c r="U14" s="14"/>
       <c r="V14" s="5">
         <v>32975873669</v>
       </c>
-      <c r="W14" s="12"/>
+      <c r="W14" s="14"/>
       <c r="X14" s="5">
         <v>111075112430</v>
       </c>
-      <c r="Y14" s="12"/>
+      <c r="Y14" s="14"/>
       <c r="Z14" s="1"/>
-      <c r="AA14" s="12"/>
+      <c r="AA14" s="14"/>
       <c r="AB14" s="8">
         <v>0.52800000000000002</v>
       </c>
-      <c r="AC14" s="12"/>
+      <c r="AC14" s="14"/>
       <c r="AD14" s="9">
         <v>93210800</v>
       </c>
-      <c r="AE14" s="12"/>
+      <c r="AE14" s="14"/>
       <c r="AF14" s="9">
         <v>179220340</v>
       </c>
-      <c r="AG14" s="12"/>
+      <c r="AG14" s="14"/>
       <c r="AH14" s="2"/>
-      <c r="AI14" s="12"/>
+      <c r="AI14" s="14"/>
       <c r="AJ14" s="8">
         <v>2.9279999999999999</v>
       </c>
-      <c r="AK14" s="12"/>
+      <c r="AK14" s="14"/>
       <c r="AL14" s="9">
         <v>138000000</v>
       </c>
-      <c r="AM14" s="12"/>
+      <c r="AM14" s="14"/>
       <c r="AN14" s="9">
         <v>360000000</v>
       </c>
-      <c r="AO14" s="12"/>
+      <c r="AO14" s="14"/>
       <c r="AP14" s="2"/>
     </row>
     <row r="15" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
-      <c r="B15" s="12"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="5">
         <v>17.074000000000002</v>
       </c>
-      <c r="D15" s="12"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="6">
         <v>9090000000</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="6">
         <v>5040000000</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="14"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="12"/>
+      <c r="J15" s="14"/>
       <c r="K15" s="8">
         <v>3.226</v>
       </c>
-      <c r="L15" s="12"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="9">
         <v>745000000</v>
       </c>
-      <c r="N15" s="12"/>
+      <c r="N15" s="14"/>
       <c r="O15" s="9">
         <v>1410000000</v>
       </c>
-      <c r="P15" s="12"/>
+      <c r="P15" s="14"/>
       <c r="Q15" s="2"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="5">
         <v>116.97799999999999</v>
       </c>
-      <c r="U15" s="12"/>
+      <c r="U15" s="14"/>
       <c r="V15" s="5">
         <v>32945279037</v>
       </c>
-      <c r="W15" s="12"/>
+      <c r="W15" s="14"/>
       <c r="X15" s="5">
         <v>112307570384</v>
       </c>
-      <c r="Y15" s="12"/>
+      <c r="Y15" s="14"/>
       <c r="Z15" s="1"/>
-      <c r="AA15" s="12"/>
+      <c r="AA15" s="14"/>
       <c r="AB15" s="8">
         <v>0.60699999999999998</v>
       </c>
-      <c r="AC15" s="12"/>
+      <c r="AC15" s="14"/>
       <c r="AD15" s="9">
         <v>258614631</v>
       </c>
-      <c r="AE15" s="12"/>
+      <c r="AE15" s="14"/>
       <c r="AF15" s="9">
         <v>314655759</v>
       </c>
-      <c r="AG15" s="12"/>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="2"/>
-      <c r="AI15" s="12"/>
+      <c r="AI15" s="14"/>
       <c r="AJ15" s="8">
         <v>3.0680000000000001</v>
       </c>
-      <c r="AK15" s="12"/>
+      <c r="AK15" s="14"/>
       <c r="AL15" s="9">
         <v>138000000</v>
       </c>
-      <c r="AM15" s="12"/>
+      <c r="AM15" s="14"/>
       <c r="AN15" s="9">
         <v>360000000</v>
       </c>
-      <c r="AO15" s="12"/>
+      <c r="AO15" s="14"/>
       <c r="AP15" s="2"/>
     </row>
     <row r="16" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>2200</v>
       </c>
       <c r="C16" s="5">
         <v>38.341999999999999</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="16">
         <f>ROUND(AVERAGE(C16:C18), 3)</f>
         <v>38.023000000000003</v>
       </c>
       <c r="E16" s="6">
         <v>17700000000</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="15">
         <f>ROUND(AVERAGE(E16:E18),3)</f>
         <v>17633333333.333</v>
       </c>
       <c r="G16" s="6">
         <v>19000000000</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="15">
         <f>ROUND(AVERAGE(G16:G18),3)</f>
         <v>19600000000</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="16">
+      <c r="J16" s="13">
         <v>2200</v>
       </c>
       <c r="K16" s="8">
         <v>6.0229999999999997</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="16">
         <f>ROUND(AVERAGE(K16:K18),3)</f>
         <v>6.0380000000000003</v>
       </c>
       <c r="M16" s="9">
         <v>2070000000</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="15">
         <f>ROUND(AVERAGE(M16:M18),3)</f>
         <v>2070000000</v>
       </c>
       <c r="O16" s="9">
         <v>2540000000</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="17">
         <f>ROUND(AVERAGE(O16:O18),3)</f>
         <v>2543333333.3330002</v>
       </c>
       <c r="Q16" s="2"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="17">
+      <c r="R16" s="14"/>
+      <c r="S16" s="19">
         <v>256</v>
       </c>
       <c r="T16" s="5">
         <v>108.699</v>
       </c>
-      <c r="U16" s="15">
+      <c r="U16" s="20">
         <f>ROUND(AVERAGE(T16:T18),3)</f>
         <v>108.873</v>
       </c>
       <c r="V16" s="5">
         <v>30812869979</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="18">
         <f>AVERAGE(V16:V18)</f>
         <v>30808656422</v>
       </c>
       <c r="X16" s="5">
         <v>77751971971</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="18">
         <f>AVERAGE(X16:X18)</f>
         <v>77916748577</v>
       </c>
       <c r="Z16" s="1"/>
-      <c r="AA16" s="16">
+      <c r="AA16" s="13">
         <v>2200</v>
       </c>
       <c r="AB16" s="8">
         <v>1.4159999999999999</v>
       </c>
-      <c r="AC16" s="18">
+      <c r="AC16" s="16">
         <f>ROUND(AVERAGE(AB16:AB18),3)</f>
         <v>1.2629999999999999</v>
       </c>
       <c r="AD16" s="9">
         <v>258614631</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="AE16" s="15">
         <f>ROUND(AVERAGE(AD16:AD18),3)</f>
         <v>258691059.333</v>
       </c>
       <c r="AF16" s="9">
         <v>314655759</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="AG16" s="15">
         <f>ROUND(AVERAGE(AF16:AF18),3)</f>
         <v>320686439.667</v>
       </c>
       <c r="AH16" s="2"/>
-      <c r="AI16" s="16">
+      <c r="AI16" s="13">
         <v>2200</v>
       </c>
       <c r="AJ16" s="8">
         <v>5.4729999999999999</v>
       </c>
-      <c r="AK16" s="18">
+      <c r="AK16" s="16">
         <f>ROUND(AVERAGE(AJ16:AJ18),3)</f>
         <v>5.5250000000000004</v>
       </c>
       <c r="AL16" s="9">
         <v>236000000</v>
       </c>
-      <c r="AM16" s="13">
+      <c r="AM16" s="15">
         <f>ROUND(AVERAGE(AL16:AL18),3)</f>
         <v>236000000</v>
       </c>
       <c r="AN16" s="9">
         <v>556000000</v>
       </c>
-      <c r="AO16" s="13">
+      <c r="AO16" s="15">
         <f>ROUND(AVERAGE(AN16:AN18),3)</f>
         <v>554333333.33299994</v>
       </c>
@@ -5529,276 +8185,276 @@
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="5">
         <v>37.472000000000001</v>
       </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="6">
         <v>17600000000</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="6">
         <v>20100000000</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="14"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="12"/>
+      <c r="J17" s="14"/>
       <c r="K17" s="8">
         <v>6.056</v>
       </c>
-      <c r="L17" s="12"/>
+      <c r="L17" s="14"/>
       <c r="M17" s="9">
         <v>2070000000</v>
       </c>
-      <c r="N17" s="12"/>
+      <c r="N17" s="14"/>
       <c r="O17" s="9">
         <v>2550000000</v>
       </c>
-      <c r="P17" s="12"/>
+      <c r="P17" s="14"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
       <c r="T17" s="5">
         <v>108.94799999999999</v>
       </c>
-      <c r="U17" s="12"/>
+      <c r="U17" s="14"/>
       <c r="V17" s="5">
         <v>30812768706</v>
       </c>
-      <c r="W17" s="12"/>
+      <c r="W17" s="14"/>
       <c r="X17" s="5">
         <v>77512961904</v>
       </c>
-      <c r="Y17" s="12"/>
+      <c r="Y17" s="14"/>
       <c r="Z17" s="1"/>
-      <c r="AA17" s="12"/>
+      <c r="AA17" s="14"/>
       <c r="AB17" s="8">
         <v>1.3939999999999999</v>
       </c>
-      <c r="AC17" s="12"/>
+      <c r="AC17" s="14"/>
       <c r="AD17" s="9">
         <v>258649939</v>
       </c>
-      <c r="AE17" s="12"/>
+      <c r="AE17" s="14"/>
       <c r="AF17" s="9">
         <v>317083594</v>
       </c>
-      <c r="AG17" s="12"/>
+      <c r="AG17" s="14"/>
       <c r="AH17" s="2"/>
-      <c r="AI17" s="12"/>
+      <c r="AI17" s="14"/>
       <c r="AJ17" s="8">
         <v>5.5780000000000003</v>
       </c>
-      <c r="AK17" s="12"/>
+      <c r="AK17" s="14"/>
       <c r="AL17" s="9">
         <v>236000000</v>
       </c>
-      <c r="AM17" s="12"/>
+      <c r="AM17" s="14"/>
       <c r="AN17" s="9">
         <v>554000000</v>
       </c>
-      <c r="AO17" s="12"/>
+      <c r="AO17" s="14"/>
       <c r="AP17" s="2"/>
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
-      <c r="B18" s="12"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="5">
         <v>38.255000000000003</v>
       </c>
-      <c r="D18" s="12"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="6">
         <v>17600000000</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="6">
         <v>19700000000</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="12"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="8">
         <v>6.0350000000000001</v>
       </c>
-      <c r="L18" s="12"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="9">
         <v>2070000000</v>
       </c>
-      <c r="N18" s="12"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="9">
         <v>2540000000</v>
       </c>
-      <c r="P18" s="12"/>
+      <c r="P18" s="14"/>
       <c r="Q18" s="2"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="5">
         <v>108.971</v>
       </c>
-      <c r="U18" s="12"/>
+      <c r="U18" s="14"/>
       <c r="V18" s="5">
         <v>30800330581</v>
       </c>
-      <c r="W18" s="12"/>
+      <c r="W18" s="14"/>
       <c r="X18" s="5">
         <v>78485311856</v>
       </c>
-      <c r="Y18" s="12"/>
+      <c r="Y18" s="14"/>
       <c r="Z18" s="1"/>
-      <c r="AA18" s="12"/>
+      <c r="AA18" s="14"/>
       <c r="AB18" s="8">
         <v>0.98</v>
       </c>
-      <c r="AC18" s="12"/>
+      <c r="AC18" s="14"/>
       <c r="AD18" s="9">
         <v>258808608</v>
       </c>
-      <c r="AE18" s="12"/>
+      <c r="AE18" s="14"/>
       <c r="AF18" s="9">
         <v>330319966</v>
       </c>
-      <c r="AG18" s="12"/>
+      <c r="AG18" s="14"/>
       <c r="AH18" s="2"/>
-      <c r="AI18" s="12"/>
+      <c r="AI18" s="14"/>
       <c r="AJ18" s="8">
         <v>5.5229999999999997</v>
       </c>
-      <c r="AK18" s="12"/>
+      <c r="AK18" s="14"/>
       <c r="AL18" s="9">
         <v>236000000</v>
       </c>
-      <c r="AM18" s="12"/>
+      <c r="AM18" s="14"/>
       <c r="AN18" s="9">
         <v>553000000</v>
       </c>
-      <c r="AO18" s="12"/>
+      <c r="AO18" s="14"/>
       <c r="AP18" s="2"/>
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>2600</v>
       </c>
       <c r="C19" s="5">
         <v>67.921000000000006</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <f>ROUND(AVERAGE(C19:C21), 3)</f>
         <v>68.037999999999997</v>
       </c>
       <c r="E19" s="6">
         <v>30900000000</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="15">
         <f>ROUND(AVERAGE(E19:E21),3)</f>
         <v>30900000000</v>
       </c>
       <c r="G19" s="6">
         <v>49400000000</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="15">
         <f>ROUND(AVERAGE(G19:G21),3)</f>
         <v>50233333333.333</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="16">
+      <c r="J19" s="13">
         <v>2600</v>
       </c>
       <c r="K19" s="8">
         <v>10.083</v>
       </c>
-      <c r="L19" s="18">
+      <c r="L19" s="16">
         <f>ROUND(AVERAGE(K19:K21),3)</f>
         <v>10.103999999999999</v>
       </c>
       <c r="M19" s="9">
         <v>4410000000</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="15">
         <f>ROUND(AVERAGE(M19:M21),3)</f>
         <v>4410000000</v>
       </c>
       <c r="O19" s="9">
         <v>4160000000</v>
       </c>
-      <c r="P19" s="14">
+      <c r="P19" s="17">
         <f>ROUND(AVERAGE(O19:O21),3)</f>
         <v>4143333333.3330002</v>
       </c>
       <c r="Q19" s="2"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="17">
+      <c r="R19" s="14"/>
+      <c r="S19" s="19">
         <v>512</v>
       </c>
       <c r="T19" s="5">
         <v>108.217</v>
       </c>
-      <c r="U19" s="15">
+      <c r="U19" s="20">
         <f>ROUND(AVERAGE(T19:T21),3)</f>
         <v>108.232</v>
       </c>
       <c r="V19" s="5">
         <v>29571133804</v>
       </c>
-      <c r="W19" s="11">
+      <c r="W19" s="18">
         <f>AVERAGE(V19:V21)</f>
         <v>29569107611.333332</v>
       </c>
       <c r="X19" s="5">
         <v>65978535779</v>
       </c>
-      <c r="Y19" s="11">
+      <c r="Y19" s="18">
         <f>AVERAGE(X19:X21)</f>
         <v>66298099465.666664</v>
       </c>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="16">
+      <c r="AA19" s="13">
         <v>2600</v>
       </c>
       <c r="AB19" s="8">
         <v>2.137</v>
       </c>
-      <c r="AC19" s="18">
+      <c r="AC19" s="16">
         <f>ROUND(AVERAGE(AB19:AB21),3)</f>
         <v>1.996</v>
       </c>
       <c r="AD19" s="9">
         <v>551303364</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="AE19" s="15">
         <f>ROUND(AVERAGE(AD19:AD21),3)</f>
         <v>551360986</v>
       </c>
       <c r="AF19" s="9">
         <v>523367955</v>
       </c>
-      <c r="AG19" s="13">
+      <c r="AG19" s="15">
         <f>ROUND(AVERAGE(AF19:AF21),3)</f>
         <v>530618521</v>
       </c>
       <c r="AH19" s="2"/>
-      <c r="AI19" s="16">
+      <c r="AI19" s="13">
         <v>2600</v>
       </c>
       <c r="AJ19" s="8">
         <v>8.9610000000000003</v>
       </c>
-      <c r="AK19" s="18">
+      <c r="AK19" s="16">
         <f>ROUND(AVERAGE(AJ19:AJ21),3)</f>
         <v>9.2189999999999994</v>
       </c>
       <c r="AL19" s="9">
         <v>370000000</v>
       </c>
-      <c r="AM19" s="13">
+      <c r="AM19" s="15">
         <f>ROUND(AVERAGE(AL19:AL21),3)</f>
         <v>370000000</v>
       </c>
       <c r="AN19" s="9">
         <v>828000000</v>
       </c>
-      <c r="AO19" s="13">
+      <c r="AO19" s="15">
         <f>ROUND(AVERAGE(AN19:AN21),3)</f>
         <v>830333333.33299994</v>
       </c>
@@ -5806,278 +8462,278 @@
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
-      <c r="B20" s="12"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="5">
         <v>67.605000000000004</v>
       </c>
-      <c r="D20" s="12"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="6">
         <v>30900000000</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="14"/>
       <c r="G20" s="6">
         <v>50400000000</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="14"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="12"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="8">
         <v>10.148</v>
       </c>
-      <c r="L20" s="12"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="9">
         <v>4410000000</v>
       </c>
-      <c r="N20" s="12"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="9">
         <v>4170000000</v>
       </c>
-      <c r="P20" s="12"/>
+      <c r="P20" s="14"/>
       <c r="Q20" s="2"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
       <c r="T20" s="5">
         <v>108.501</v>
       </c>
-      <c r="U20" s="12"/>
+      <c r="U20" s="14"/>
       <c r="V20" s="5">
         <v>29562857999</v>
       </c>
-      <c r="W20" s="12"/>
+      <c r="W20" s="14"/>
       <c r="X20" s="5">
         <v>66604899038</v>
       </c>
-      <c r="Y20" s="12"/>
+      <c r="Y20" s="14"/>
       <c r="Z20" s="1"/>
-      <c r="AA20" s="12"/>
+      <c r="AA20" s="14"/>
       <c r="AB20" s="8">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AC20" s="12"/>
+      <c r="AC20" s="14"/>
       <c r="AD20" s="9">
         <v>551383730</v>
       </c>
-      <c r="AE20" s="12"/>
+      <c r="AE20" s="14"/>
       <c r="AF20" s="9">
         <v>534595935</v>
       </c>
-      <c r="AG20" s="12"/>
+      <c r="AG20" s="14"/>
       <c r="AH20" s="2"/>
-      <c r="AI20" s="12"/>
+      <c r="AI20" s="14"/>
       <c r="AJ20" s="8">
         <v>9.7409999999999997</v>
       </c>
-      <c r="AK20" s="12"/>
+      <c r="AK20" s="14"/>
       <c r="AL20" s="9">
         <v>370000000</v>
       </c>
-      <c r="AM20" s="12"/>
+      <c r="AM20" s="14"/>
       <c r="AN20" s="9">
         <v>834000000</v>
       </c>
-      <c r="AO20" s="12"/>
+      <c r="AO20" s="14"/>
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
-      <c r="B21" s="12"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="5">
         <v>68.587000000000003</v>
       </c>
-      <c r="D21" s="12"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="6">
         <v>30900000000</v>
       </c>
-      <c r="F21" s="12"/>
+      <c r="F21" s="14"/>
       <c r="G21" s="6">
         <v>50900000000</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="14"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="12"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="8">
         <v>10.08</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="14"/>
       <c r="M21" s="9">
         <v>4410000000</v>
       </c>
-      <c r="N21" s="12"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="9">
         <v>4100000000</v>
       </c>
-      <c r="P21" s="12"/>
+      <c r="P21" s="14"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="5">
         <v>107.97799999999999</v>
       </c>
-      <c r="U21" s="12"/>
+      <c r="U21" s="14"/>
       <c r="V21" s="5">
         <v>29573331031</v>
       </c>
-      <c r="W21" s="12"/>
+      <c r="W21" s="14"/>
       <c r="X21" s="5">
         <v>66310863580</v>
       </c>
-      <c r="Y21" s="12"/>
+      <c r="Y21" s="14"/>
       <c r="Z21" s="1"/>
-      <c r="AA21" s="12"/>
+      <c r="AA21" s="14"/>
       <c r="AB21" s="8">
         <v>1.8</v>
       </c>
-      <c r="AC21" s="12"/>
+      <c r="AC21" s="14"/>
       <c r="AD21" s="9">
         <v>551395864</v>
       </c>
-      <c r="AE21" s="12"/>
+      <c r="AE21" s="14"/>
       <c r="AF21" s="9">
         <v>533891673</v>
       </c>
-      <c r="AG21" s="12"/>
+      <c r="AG21" s="14"/>
       <c r="AH21" s="2"/>
-      <c r="AI21" s="12"/>
+      <c r="AI21" s="14"/>
       <c r="AJ21" s="8">
         <v>8.9550000000000001</v>
       </c>
-      <c r="AK21" s="12"/>
+      <c r="AK21" s="14"/>
       <c r="AL21" s="9">
         <v>370000000</v>
       </c>
-      <c r="AM21" s="12"/>
+      <c r="AM21" s="14"/>
       <c r="AN21" s="9">
         <v>829000000</v>
       </c>
-      <c r="AO21" s="12"/>
+      <c r="AO21" s="14"/>
       <c r="AP21" s="2"/>
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
-      <c r="B22" s="16">
+      <c r="B22" s="13">
         <v>3000</v>
       </c>
       <c r="C22" s="5">
         <v>113.44499999999999</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="16">
         <f>ROUND(AVERAGE(C22:C24), 3)</f>
         <v>114.255</v>
       </c>
       <c r="E22" s="6">
         <v>50300000000</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="15">
         <f>ROUND(AVERAGE(E22:E24),3)</f>
         <v>50300000000</v>
       </c>
       <c r="G22" s="6">
         <v>98000000000</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="15">
         <f>ROUND(AVERAGE(G22:G24),3)</f>
         <v>96433333333.332993</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="16">
+      <c r="J22" s="13">
         <v>3000</v>
       </c>
       <c r="K22" s="8">
         <v>16.154</v>
       </c>
-      <c r="L22" s="18">
+      <c r="L22" s="16">
         <f>ROUND(AVERAGE(K22:K24),3)</f>
         <v>16.646000000000001</v>
       </c>
       <c r="M22" s="9">
         <v>6780000000</v>
       </c>
-      <c r="N22" s="13">
+      <c r="N22" s="15">
         <f>ROUND(AVERAGE(M22:M24),3)</f>
         <v>6780000000</v>
       </c>
       <c r="O22" s="9">
         <v>6270000000</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P22" s="17">
         <f>ROUND(AVERAGE(O22:O24),3)</f>
         <v>6256666666.6669998</v>
       </c>
       <c r="Q22" s="2"/>
-      <c r="R22" s="16">
+      <c r="R22" s="13">
         <v>8192</v>
       </c>
-      <c r="S22" s="17">
+      <c r="S22" s="19">
         <v>128</v>
       </c>
       <c r="T22" s="5">
         <v>276.03300000000002</v>
       </c>
-      <c r="U22" s="15">
+      <c r="U22" s="20">
         <f>ROUND(AVERAGE(T22:T24),3)</f>
         <v>276.14400000000001</v>
       </c>
       <c r="V22" s="5">
         <v>74257097827</v>
       </c>
-      <c r="W22" s="11">
+      <c r="W22" s="18">
         <f>AVERAGE(V22:V24)</f>
         <v>75831951991</v>
       </c>
       <c r="X22" s="5">
         <v>256655535541</v>
       </c>
-      <c r="Y22" s="11">
+      <c r="Y22" s="18">
         <f>AVERAGE(X22:X24)</f>
         <v>260175322832.33334</v>
       </c>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="16">
+      <c r="AA22" s="13">
         <v>3000</v>
       </c>
       <c r="AB22" s="8">
         <v>2.9740000000000002</v>
       </c>
-      <c r="AC22" s="18">
+      <c r="AC22" s="16">
         <f>ROUND(AVERAGE(AB22:AB24),3)</f>
         <v>2.8260000000000001</v>
       </c>
       <c r="AD22" s="9">
         <v>847463618</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="AE22" s="15">
         <f>ROUND(AVERAGE(AD22:AD24),3)</f>
         <v>847436362.66700006</v>
       </c>
       <c r="AF22" s="9">
         <v>822039463</v>
       </c>
-      <c r="AG22" s="13">
+      <c r="AG22" s="15">
         <f>ROUND(AVERAGE(AF22:AF24),3)</f>
         <v>833762694</v>
       </c>
       <c r="AH22" s="2"/>
-      <c r="AI22" s="16">
+      <c r="AI22" s="13">
         <v>3000</v>
       </c>
       <c r="AJ22" s="8">
         <v>13.641999999999999</v>
       </c>
-      <c r="AK22" s="18">
+      <c r="AK22" s="16">
         <f>ROUND(AVERAGE(AJ22:AJ24),3)</f>
         <v>13.6</v>
       </c>
       <c r="AL22" s="9">
         <v>550000000</v>
       </c>
-      <c r="AM22" s="13">
+      <c r="AM22" s="15">
         <f>ROUND(AVERAGE(AL22:AL24),3)</f>
         <v>550333333.33299994</v>
       </c>
       <c r="AN22" s="9">
         <v>1180000000</v>
       </c>
-      <c r="AO22" s="13">
+      <c r="AO22" s="15">
         <f>ROUND(AVERAGE(AN22:AN24),3)</f>
         <v>1180000000</v>
       </c>
@@ -6085,150 +8741,150 @@
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
-      <c r="B23" s="12"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="5">
         <v>114.146</v>
       </c>
-      <c r="D23" s="12"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="6">
         <v>50300000000</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="6">
         <v>96900000000</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="14"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="12"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="8">
         <v>16.698</v>
       </c>
-      <c r="L23" s="12"/>
+      <c r="L23" s="14"/>
       <c r="M23" s="9">
         <v>6780000000</v>
       </c>
-      <c r="N23" s="12"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="9">
         <v>6330000000</v>
       </c>
-      <c r="P23" s="12"/>
+      <c r="P23" s="14"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
       <c r="T23" s="5">
         <v>274.99599999999998</v>
       </c>
-      <c r="U23" s="12"/>
+      <c r="U23" s="14"/>
       <c r="V23" s="5">
         <v>78415646987</v>
       </c>
-      <c r="W23" s="12"/>
+      <c r="W23" s="14"/>
       <c r="X23" s="5">
         <v>264751426277</v>
       </c>
-      <c r="Y23" s="12"/>
+      <c r="Y23" s="14"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="12"/>
+      <c r="AA23" s="14"/>
       <c r="AB23" s="8">
         <v>2.8140000000000001</v>
       </c>
-      <c r="AC23" s="12"/>
+      <c r="AC23" s="14"/>
       <c r="AD23" s="9">
         <v>847446198</v>
       </c>
-      <c r="AE23" s="12"/>
+      <c r="AE23" s="14"/>
       <c r="AF23" s="9">
         <v>823701807</v>
       </c>
-      <c r="AG23" s="12"/>
+      <c r="AG23" s="14"/>
       <c r="AH23" s="2"/>
-      <c r="AI23" s="12"/>
+      <c r="AI23" s="14"/>
       <c r="AJ23" s="8">
         <v>13.577999999999999</v>
       </c>
-      <c r="AK23" s="12"/>
+      <c r="AK23" s="14"/>
       <c r="AL23" s="9">
         <v>550000000</v>
       </c>
-      <c r="AM23" s="12"/>
+      <c r="AM23" s="14"/>
       <c r="AN23" s="9">
         <v>1180000000</v>
       </c>
-      <c r="AO23" s="12"/>
+      <c r="AO23" s="14"/>
       <c r="AP23" s="2"/>
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
-      <c r="B24" s="12"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="5">
         <v>115.173</v>
       </c>
-      <c r="D24" s="12"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="6">
         <v>50300000000</v>
       </c>
-      <c r="F24" s="12"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="6">
         <v>94400000000</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="14"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="12"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="8">
         <v>17.085000000000001</v>
       </c>
-      <c r="L24" s="12"/>
+      <c r="L24" s="14"/>
       <c r="M24" s="9">
         <v>6780000000</v>
       </c>
-      <c r="N24" s="12"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="9">
         <v>6170000000</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="14"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
       <c r="T24" s="5">
         <v>277.40300000000002</v>
       </c>
-      <c r="U24" s="12"/>
+      <c r="U24" s="14"/>
       <c r="V24" s="5">
         <v>74823111159</v>
       </c>
-      <c r="W24" s="12"/>
+      <c r="W24" s="14"/>
       <c r="X24" s="5">
         <v>259119006679</v>
       </c>
-      <c r="Y24" s="12"/>
+      <c r="Y24" s="14"/>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="12"/>
+      <c r="AA24" s="14"/>
       <c r="AB24" s="8">
         <v>2.69</v>
       </c>
-      <c r="AC24" s="12"/>
+      <c r="AC24" s="14"/>
       <c r="AD24" s="9">
         <v>847399272</v>
       </c>
-      <c r="AE24" s="12"/>
+      <c r="AE24" s="14"/>
       <c r="AF24" s="9">
         <v>855546812</v>
       </c>
-      <c r="AG24" s="12"/>
+      <c r="AG24" s="14"/>
       <c r="AH24" s="2"/>
-      <c r="AI24" s="12"/>
+      <c r="AI24" s="14"/>
       <c r="AJ24" s="8">
         <v>13.58</v>
       </c>
-      <c r="AK24" s="12"/>
+      <c r="AK24" s="14"/>
       <c r="AL24" s="9">
         <v>551000000</v>
       </c>
-      <c r="AM24" s="12"/>
+      <c r="AM24" s="14"/>
       <c r="AN24" s="9">
         <v>1180000000</v>
       </c>
-      <c r="AO24" s="12"/>
+      <c r="AO24" s="14"/>
       <c r="AP24" s="2"/>
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6241,103 +8897,103 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="16">
+      <c r="J25" s="13">
         <v>4096</v>
       </c>
       <c r="K25" s="8">
         <v>40.423999999999999</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="16">
         <f>ROUND(AVERAGE(K25:K27),3)</f>
         <v>40.503</v>
       </c>
       <c r="M25" s="9">
         <v>17600000000</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="15">
         <f>ROUND(AVERAGE(M25:M27),3)</f>
         <v>17600000000</v>
       </c>
       <c r="O25" s="9">
         <v>16000000000</v>
       </c>
-      <c r="P25" s="14">
+      <c r="P25" s="17">
         <f>ROUND(AVERAGE(O25:O27),3)</f>
         <v>16100000000</v>
       </c>
       <c r="Q25" s="2"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="17">
+      <c r="R25" s="14"/>
+      <c r="S25" s="19">
         <v>256</v>
       </c>
       <c r="T25" s="5">
         <v>412.34300000000002</v>
       </c>
-      <c r="U25" s="15">
+      <c r="U25" s="20">
         <f>ROUND(AVERAGE(T25:T27),3)</f>
         <v>414.19600000000003</v>
       </c>
       <c r="V25" s="5">
         <v>71996168873</v>
       </c>
-      <c r="W25" s="11">
+      <c r="W25" s="18">
         <f>AVERAGE(V25:V27)</f>
         <v>72003535148.666672</v>
       </c>
       <c r="X25" s="5">
         <v>161207080401</v>
       </c>
-      <c r="Y25" s="11">
+      <c r="Y25" s="18">
         <f>AVERAGE(X25:X27)</f>
         <v>161189819600.66666</v>
       </c>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="16">
+      <c r="AA25" s="13">
         <v>4096</v>
       </c>
       <c r="AB25" s="8">
         <v>7.3529999999999998</v>
       </c>
-      <c r="AC25" s="18">
+      <c r="AC25" s="16">
         <f>ROUND(AVERAGE(AB25:AB27),3)</f>
         <v>7.24</v>
       </c>
       <c r="AD25" s="9">
         <v>2203803579</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="AE25" s="15">
         <f>ROUND(AVERAGE(AD25:AD27),3)</f>
         <v>2204414456</v>
       </c>
       <c r="AF25" s="9">
         <v>2137687140</v>
       </c>
-      <c r="AG25" s="13">
+      <c r="AG25" s="15">
         <f>ROUND(AVERAGE(AF25:AF27),3)</f>
         <v>2143498680.6670001</v>
       </c>
       <c r="AH25" s="2"/>
-      <c r="AI25" s="16">
+      <c r="AI25" s="13">
         <v>4096</v>
       </c>
       <c r="AJ25" s="8">
         <v>33.079000000000001</v>
       </c>
-      <c r="AK25" s="18">
+      <c r="AK25" s="16">
         <f>ROUND(AVERAGE(AJ25:AJ27),3)</f>
         <v>33.082999999999998</v>
       </c>
       <c r="AL25" s="9">
         <v>1230000000</v>
       </c>
-      <c r="AM25" s="13">
+      <c r="AM25" s="15">
         <f>ROUND(AVERAGE(AL25:AL27),3)</f>
         <v>1230000000</v>
       </c>
       <c r="AN25" s="9">
         <v>2320000000</v>
       </c>
-      <c r="AO25" s="13">
+      <c r="AO25" s="15">
         <f>ROUND(AVERAGE(AN25:AN27),3)</f>
         <v>2296666666.6669998</v>
       </c>
@@ -6345,74 +9001,74 @@
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="12"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="8">
         <v>40.645000000000003</v>
       </c>
-      <c r="L26" s="12"/>
+      <c r="L26" s="14"/>
       <c r="M26" s="9">
         <v>17600000000</v>
       </c>
-      <c r="N26" s="12"/>
+      <c r="N26" s="14"/>
       <c r="O26" s="9">
         <v>16200000000</v>
       </c>
-      <c r="P26" s="12"/>
+      <c r="P26" s="14"/>
       <c r="Q26" s="2"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
       <c r="T26" s="5">
         <v>413.39100000000002</v>
       </c>
-      <c r="U26" s="12"/>
+      <c r="U26" s="14"/>
       <c r="V26" s="5">
         <v>72007831948</v>
       </c>
-      <c r="W26" s="12"/>
+      <c r="W26" s="14"/>
       <c r="X26" s="5">
         <v>161696223350</v>
       </c>
-      <c r="Y26" s="12"/>
+      <c r="Y26" s="14"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="12"/>
+      <c r="AA26" s="14"/>
       <c r="AB26" s="8">
         <v>7.157</v>
       </c>
-      <c r="AC26" s="12"/>
+      <c r="AC26" s="14"/>
       <c r="AD26" s="9">
         <v>2204907482</v>
       </c>
-      <c r="AE26" s="12"/>
+      <c r="AE26" s="14"/>
       <c r="AF26" s="9">
         <v>2140349596</v>
       </c>
-      <c r="AG26" s="12"/>
+      <c r="AG26" s="14"/>
       <c r="AH26" s="2"/>
-      <c r="AI26" s="12"/>
+      <c r="AI26" s="14"/>
       <c r="AJ26" s="8">
         <v>33.159999999999997</v>
       </c>
-      <c r="AK26" s="12"/>
+      <c r="AK26" s="14"/>
       <c r="AL26" s="9">
         <v>1230000000</v>
       </c>
-      <c r="AM26" s="12"/>
+      <c r="AM26" s="14"/>
       <c r="AN26" s="9">
         <v>2280000000</v>
       </c>
-      <c r="AO26" s="12"/>
+      <c r="AO26" s="14"/>
       <c r="AP26" s="2"/>
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6420,198 +9076,198 @@
       <c r="B27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="12"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1"/>
       <c r="F27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="14"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="12"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="8">
         <v>40.441000000000003</v>
       </c>
-      <c r="L27" s="12"/>
+      <c r="L27" s="14"/>
       <c r="M27" s="9">
         <v>17600000000</v>
       </c>
-      <c r="N27" s="12"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="9">
         <v>16100000000</v>
       </c>
-      <c r="P27" s="12"/>
+      <c r="P27" s="14"/>
       <c r="Q27" s="2"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
       <c r="T27" s="5">
         <v>416.85399999999998</v>
       </c>
-      <c r="U27" s="12"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="5">
         <v>72006604625</v>
       </c>
-      <c r="W27" s="12"/>
+      <c r="W27" s="14"/>
       <c r="X27" s="5">
         <v>160666155051</v>
       </c>
-      <c r="Y27" s="12"/>
+      <c r="Y27" s="14"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="12"/>
+      <c r="AA27" s="14"/>
       <c r="AB27" s="8">
         <v>7.21</v>
       </c>
-      <c r="AC27" s="12"/>
+      <c r="AC27" s="14"/>
       <c r="AD27" s="9">
         <v>2204532307</v>
       </c>
-      <c r="AE27" s="12"/>
+      <c r="AE27" s="14"/>
       <c r="AF27" s="9">
         <v>2152459306</v>
       </c>
-      <c r="AG27" s="12"/>
+      <c r="AG27" s="14"/>
       <c r="AH27" s="2"/>
-      <c r="AI27" s="12"/>
+      <c r="AI27" s="14"/>
       <c r="AJ27" s="8">
         <v>33.009</v>
       </c>
-      <c r="AK27" s="12"/>
+      <c r="AK27" s="14"/>
       <c r="AL27" s="9">
         <v>1230000000</v>
       </c>
-      <c r="AM27" s="12"/>
+      <c r="AM27" s="14"/>
       <c r="AN27" s="9">
         <v>2290000000</v>
       </c>
-      <c r="AO27" s="12"/>
+      <c r="AO27" s="14"/>
       <c r="AP27" s="2"/>
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>600</v>
       </c>
       <c r="C28" s="8">
         <v>1.7949999999999999</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="16">
         <f>ROUND(AVERAGE(C28:C30), 3)</f>
         <v>1.7969999999999999</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="16">
+      <c r="F28" s="13">
         <v>600</v>
       </c>
       <c r="G28" s="8">
         <v>0.68200000000000005</v>
       </c>
-      <c r="H28" s="18">
+      <c r="H28" s="16">
         <f>ROUND(AVERAGE(G28:G30),3)</f>
         <v>0.68799999999999994</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="16">
+      <c r="J28" s="13">
         <v>6144</v>
       </c>
       <c r="K28" s="8">
         <v>135.899</v>
       </c>
-      <c r="L28" s="18">
+      <c r="L28" s="16">
         <f>ROUND(AVERAGE(K28:K30),3)</f>
         <v>136.88900000000001</v>
       </c>
       <c r="M28" s="9">
         <v>59100000000</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="15">
         <f>ROUND(AVERAGE(M28:M30),3)</f>
         <v>59166666666.667</v>
       </c>
       <c r="O28" s="9">
         <v>52300000000</v>
       </c>
-      <c r="P28" s="14">
+      <c r="P28" s="17">
         <f>ROUND(AVERAGE(O28:O30),3)</f>
         <v>53466666666.667</v>
       </c>
       <c r="Q28" s="2"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="17">
+      <c r="R28" s="14"/>
+      <c r="S28" s="19">
         <v>512</v>
       </c>
       <c r="T28" s="5">
         <v>350.15899999999999</v>
       </c>
-      <c r="U28" s="15">
+      <c r="U28" s="20">
         <f>ROUND(AVERAGE(T28:T30),3)</f>
         <v>351.87400000000002</v>
       </c>
       <c r="V28" s="5">
         <v>70378044591</v>
       </c>
-      <c r="W28" s="11">
+      <c r="W28" s="18">
         <f>AVERAGE(V28:V30)</f>
         <v>70390546664.333328</v>
       </c>
       <c r="X28" s="5">
         <v>143254498706</v>
       </c>
-      <c r="Y28" s="11">
+      <c r="Y28" s="18">
         <f>AVERAGE(X28:X30)</f>
         <v>145002303586.66666</v>
       </c>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="16">
+      <c r="AA28" s="13">
         <v>6144</v>
       </c>
       <c r="AB28" s="8">
         <v>26.402000000000001</v>
       </c>
-      <c r="AC28" s="18">
+      <c r="AC28" s="16">
         <f>ROUND(AVERAGE(AB28:AB30),3)</f>
         <v>27.321999999999999</v>
       </c>
       <c r="AD28" s="9">
         <v>7430053035</v>
       </c>
-      <c r="AE28" s="13">
+      <c r="AE28" s="15">
         <f>ROUND(AVERAGE(AD28:AD30),3)</f>
         <v>7428610570.3330002</v>
       </c>
       <c r="AF28" s="9">
         <v>7150990857</v>
       </c>
-      <c r="AG28" s="13">
+      <c r="AG28" s="15">
         <f>ROUND(AVERAGE(AF28:AF30),3)</f>
         <v>7114366067</v>
       </c>
       <c r="AH28" s="2"/>
-      <c r="AI28" s="16">
+      <c r="AI28" s="13">
         <v>6144</v>
       </c>
       <c r="AJ28" s="8">
         <v>104.848</v>
       </c>
-      <c r="AK28" s="18">
+      <c r="AK28" s="16">
         <f>ROUND(AVERAGE(AJ28:AJ30),3)</f>
         <v>104.036</v>
       </c>
       <c r="AL28" s="9">
         <v>4100000000</v>
       </c>
-      <c r="AM28" s="13">
+      <c r="AM28" s="15">
         <f>ROUND(AVERAGE(AL28:AL30),3)</f>
         <v>4103333333.3330002</v>
       </c>
       <c r="AN28" s="9">
         <v>7520000000</v>
       </c>
-      <c r="AO28" s="13">
+      <c r="AO28" s="15">
         <f>ROUND(AVERAGE(AN28:AN30),3)</f>
         <v>7566666666.6669998</v>
       </c>
@@ -6619,271 +9275,271 @@
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
-      <c r="B29" s="12"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="8">
         <v>1.802</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="12"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="8">
         <v>0.69199999999999995</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="14"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="12"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="8">
         <v>135.81200000000001</v>
       </c>
-      <c r="L29" s="12"/>
+      <c r="L29" s="14"/>
       <c r="M29" s="9">
         <v>59200000000</v>
       </c>
-      <c r="N29" s="12"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="9">
         <v>53800000000</v>
       </c>
-      <c r="P29" s="12"/>
+      <c r="P29" s="14"/>
       <c r="Q29" s="2"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
       <c r="T29" s="5">
         <v>352.048</v>
       </c>
-      <c r="U29" s="12"/>
+      <c r="U29" s="14"/>
       <c r="V29" s="5">
         <v>70389942309</v>
       </c>
-      <c r="W29" s="12"/>
+      <c r="W29" s="14"/>
       <c r="X29" s="5">
         <v>145130490148</v>
       </c>
-      <c r="Y29" s="12"/>
+      <c r="Y29" s="14"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="12"/>
+      <c r="AA29" s="14"/>
       <c r="AB29" s="8">
         <v>28.353999999999999</v>
       </c>
-      <c r="AC29" s="12"/>
+      <c r="AC29" s="14"/>
       <c r="AD29" s="9">
         <v>7425017900</v>
       </c>
-      <c r="AE29" s="12"/>
+      <c r="AE29" s="14"/>
       <c r="AF29" s="9">
         <v>7062168665</v>
       </c>
-      <c r="AG29" s="12"/>
+      <c r="AG29" s="14"/>
       <c r="AH29" s="2"/>
-      <c r="AI29" s="12"/>
+      <c r="AI29" s="14"/>
       <c r="AJ29" s="8">
         <v>103.363</v>
       </c>
-      <c r="AK29" s="12"/>
+      <c r="AK29" s="14"/>
       <c r="AL29" s="9">
         <v>4100000000</v>
       </c>
-      <c r="AM29" s="12"/>
+      <c r="AM29" s="14"/>
       <c r="AN29" s="9">
         <v>7590000000</v>
       </c>
-      <c r="AO29" s="12"/>
+      <c r="AO29" s="14"/>
       <c r="AP29" s="2"/>
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
-      <c r="B30" s="12"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="8">
         <v>1.794</v>
       </c>
-      <c r="D30" s="12"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="12"/>
+      <c r="F30" s="14"/>
       <c r="G30" s="8">
         <v>0.69099999999999995</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="14"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="12"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="8">
         <v>138.95699999999999</v>
       </c>
-      <c r="L30" s="12"/>
+      <c r="L30" s="14"/>
       <c r="M30" s="9">
         <v>59200000000</v>
       </c>
-      <c r="N30" s="12"/>
+      <c r="N30" s="14"/>
       <c r="O30" s="9">
         <v>54300000000</v>
       </c>
-      <c r="P30" s="12"/>
+      <c r="P30" s="14"/>
       <c r="Q30" s="2"/>
-      <c r="R30" s="12"/>
-      <c r="S30" s="12"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
       <c r="T30" s="5">
         <v>353.41399999999999</v>
       </c>
-      <c r="U30" s="12"/>
+      <c r="U30" s="14"/>
       <c r="V30" s="5">
         <v>70403653093</v>
       </c>
-      <c r="W30" s="12"/>
+      <c r="W30" s="14"/>
       <c r="X30" s="5">
         <v>146621921906</v>
       </c>
-      <c r="Y30" s="12"/>
+      <c r="Y30" s="14"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="12"/>
+      <c r="AA30" s="14"/>
       <c r="AB30" s="8">
         <v>27.210999999999999</v>
       </c>
-      <c r="AC30" s="12"/>
+      <c r="AC30" s="14"/>
       <c r="AD30" s="9">
         <v>7430760776</v>
       </c>
-      <c r="AE30" s="12"/>
+      <c r="AE30" s="14"/>
       <c r="AF30" s="9">
         <v>7129938679</v>
       </c>
-      <c r="AG30" s="12"/>
+      <c r="AG30" s="14"/>
       <c r="AH30" s="2"/>
-      <c r="AI30" s="12"/>
+      <c r="AI30" s="14"/>
       <c r="AJ30" s="8">
         <v>103.896</v>
       </c>
-      <c r="AK30" s="12"/>
+      <c r="AK30" s="14"/>
       <c r="AL30" s="9">
         <v>4110000000</v>
       </c>
-      <c r="AM30" s="12"/>
+      <c r="AM30" s="14"/>
       <c r="AN30" s="9">
         <v>7590000000</v>
       </c>
-      <c r="AO30" s="12"/>
+      <c r="AO30" s="14"/>
       <c r="AP30" s="2"/>
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
-      <c r="B31" s="16">
+      <c r="B31" s="13">
         <v>1000</v>
       </c>
       <c r="C31" s="8">
         <v>5.6189999999999998</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="16">
         <f>ROUND(AVERAGE(C31:C33), 3)</f>
         <v>5.7629999999999999</v>
       </c>
       <c r="E31" s="1"/>
-      <c r="F31" s="16">
+      <c r="F31" s="13">
         <v>1000</v>
       </c>
       <c r="G31" s="8">
         <v>3.524</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H31" s="16">
         <f>ROUND(AVERAGE(G31:G33),3)</f>
         <v>2.7919999999999998</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="16">
+      <c r="J31" s="13">
         <v>8192</v>
       </c>
       <c r="K31" s="8">
         <v>331.30200000000002</v>
       </c>
-      <c r="L31" s="18">
+      <c r="L31" s="16">
         <f>ROUND(AVERAGE(K31:K33),3)</f>
         <v>330.24299999999999</v>
       </c>
       <c r="M31" s="9">
         <v>140000000000</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="15">
         <f>ROUND(AVERAGE(M31:M33),3)</f>
         <v>140000000000</v>
       </c>
       <c r="O31" s="9">
         <v>130000000000</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="17">
         <f>ROUND(AVERAGE(O31:O33),3)</f>
         <v>129666666666.66701</v>
       </c>
       <c r="Q31" s="2"/>
-      <c r="R31" s="16">
+      <c r="R31" s="13">
         <v>10240</v>
       </c>
-      <c r="S31" s="17">
+      <c r="S31" s="19">
         <v>128</v>
       </c>
       <c r="T31" s="5">
         <v>754.702</v>
       </c>
-      <c r="U31" s="15">
+      <c r="U31" s="20">
         <f>ROUND(AVERAGE(T31:T33),3)</f>
         <v>753.61800000000005</v>
       </c>
       <c r="V31" s="5">
         <v>155781778345</v>
       </c>
-      <c r="W31" s="11">
+      <c r="W31" s="18">
         <f>AVERAGE(V31:V33)</f>
         <v>155782897854.33334</v>
       </c>
       <c r="X31" s="5">
         <v>534144853106</v>
       </c>
-      <c r="Y31" s="11">
+      <c r="Y31" s="18">
         <f>AVERAGE(X31:X33)</f>
         <v>529849730322</v>
       </c>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="16">
+      <c r="AA31" s="13">
         <v>8192</v>
       </c>
       <c r="AB31" s="8">
         <v>75.724000000000004</v>
       </c>
-      <c r="AC31" s="18">
+      <c r="AC31" s="16">
         <f>ROUND(AVERAGE(AB31:AB33),3)</f>
         <v>72.872</v>
       </c>
       <c r="AD31" s="9">
         <v>17574719069</v>
       </c>
-      <c r="AE31" s="13">
+      <c r="AE31" s="15">
         <f>ROUND(AVERAGE(AD31:AD33),3)</f>
         <v>17584122437</v>
       </c>
       <c r="AF31" s="9">
         <v>16347544011</v>
       </c>
-      <c r="AG31" s="13">
+      <c r="AG31" s="15">
         <f>ROUND(AVERAGE(AF31:AF33),3)</f>
         <v>16456253821.333</v>
       </c>
       <c r="AH31" s="2"/>
-      <c r="AI31" s="16">
+      <c r="AI31" s="13">
         <v>8192</v>
       </c>
       <c r="AJ31" s="8">
         <v>244.70500000000001</v>
       </c>
-      <c r="AK31" s="18">
+      <c r="AK31" s="16">
         <f>ROUND(AVERAGE(AJ31:AJ33),3)</f>
         <v>256.863</v>
       </c>
       <c r="AL31" s="9">
         <v>9310000000</v>
       </c>
-      <c r="AM31" s="13">
+      <c r="AM31" s="15">
         <f>ROUND(AVERAGE(AL31:AL33),3)</f>
         <v>9308871847.3330002</v>
       </c>
       <c r="AN31" s="9">
         <v>14700000000</v>
       </c>
-      <c r="AO31" s="13">
+      <c r="AO31" s="15">
         <f>ROUND(AVERAGE(AN31:AN33),3)</f>
         <v>14643080937.333</v>
       </c>
@@ -6891,269 +9547,269 @@
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="8">
         <v>5.8840000000000003</v>
       </c>
-      <c r="D32" s="12"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="8">
         <v>2.5190000000000001</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="14"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="12"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="8">
         <v>329.947</v>
       </c>
-      <c r="L32" s="12"/>
+      <c r="L32" s="14"/>
       <c r="M32" s="9">
         <v>140000000000</v>
       </c>
-      <c r="N32" s="12"/>
+      <c r="N32" s="14"/>
       <c r="O32" s="9">
         <v>129000000000</v>
       </c>
-      <c r="P32" s="12"/>
+      <c r="P32" s="14"/>
       <c r="Q32" s="2"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
       <c r="T32" s="5">
         <v>754.12199999999996</v>
       </c>
-      <c r="U32" s="12"/>
+      <c r="U32" s="14"/>
       <c r="V32" s="5">
         <v>155755049184</v>
       </c>
-      <c r="W32" s="12"/>
+      <c r="W32" s="14"/>
       <c r="X32" s="5">
         <v>527855435209</v>
       </c>
-      <c r="Y32" s="12"/>
+      <c r="Y32" s="14"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="12"/>
+      <c r="AA32" s="14"/>
       <c r="AB32" s="8">
         <v>70.442999999999998</v>
       </c>
-      <c r="AC32" s="12"/>
+      <c r="AC32" s="14"/>
       <c r="AD32" s="9">
         <v>17594668590</v>
       </c>
-      <c r="AE32" s="12"/>
+      <c r="AE32" s="14"/>
       <c r="AF32" s="9">
         <v>16690008465</v>
       </c>
-      <c r="AG32" s="12"/>
+      <c r="AG32" s="14"/>
       <c r="AH32" s="2"/>
-      <c r="AI32" s="12"/>
+      <c r="AI32" s="14"/>
       <c r="AJ32" s="8">
         <v>273.923</v>
       </c>
-      <c r="AK32" s="12"/>
+      <c r="AK32" s="14"/>
       <c r="AL32" s="9">
         <v>9310000000</v>
       </c>
-      <c r="AM32" s="12"/>
+      <c r="AM32" s="14"/>
       <c r="AN32" s="9">
         <v>14600000000</v>
       </c>
-      <c r="AO32" s="12"/>
+      <c r="AO32" s="14"/>
       <c r="AP32" s="2"/>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2"/>
-      <c r="B33" s="12"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="8">
         <v>5.7869999999999999</v>
       </c>
-      <c r="D33" s="12"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="12"/>
+      <c r="F33" s="14"/>
       <c r="G33" s="8">
         <v>2.3340000000000001</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="14"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="12"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="8">
         <v>329.47899999999998</v>
       </c>
-      <c r="L33" s="12"/>
+      <c r="L33" s="14"/>
       <c r="M33" s="9">
         <v>140000000000</v>
       </c>
-      <c r="N33" s="12"/>
+      <c r="N33" s="14"/>
       <c r="O33" s="9">
         <v>130000000000</v>
       </c>
-      <c r="P33" s="12"/>
+      <c r="P33" s="14"/>
       <c r="Q33" s="2"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
       <c r="T33" s="5">
         <v>752.029</v>
       </c>
-      <c r="U33" s="12"/>
+      <c r="U33" s="14"/>
       <c r="V33" s="5">
         <v>155811866034</v>
       </c>
-      <c r="W33" s="12"/>
+      <c r="W33" s="14"/>
       <c r="X33" s="5">
         <v>527548902651</v>
       </c>
-      <c r="Y33" s="12"/>
+      <c r="Y33" s="14"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="12"/>
+      <c r="AA33" s="14"/>
       <c r="AB33" s="8">
         <v>72.448999999999998</v>
       </c>
-      <c r="AC33" s="12"/>
+      <c r="AC33" s="14"/>
       <c r="AD33" s="9">
         <v>17582979652</v>
       </c>
-      <c r="AE33" s="12"/>
+      <c r="AE33" s="14"/>
       <c r="AF33" s="9">
         <v>16331208988</v>
       </c>
-      <c r="AG33" s="12"/>
+      <c r="AG33" s="14"/>
       <c r="AH33" s="2"/>
-      <c r="AI33" s="12"/>
+      <c r="AI33" s="14"/>
       <c r="AJ33" s="8">
         <v>251.96199999999999</v>
       </c>
-      <c r="AK33" s="12"/>
+      <c r="AK33" s="14"/>
       <c r="AL33" s="9">
         <v>9306615542</v>
       </c>
-      <c r="AM33" s="12"/>
+      <c r="AM33" s="14"/>
       <c r="AN33" s="9">
         <v>14629242812</v>
       </c>
-      <c r="AO33" s="12"/>
+      <c r="AO33" s="14"/>
       <c r="AP33" s="2"/>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2"/>
-      <c r="B34" s="16">
+      <c r="B34" s="13">
         <v>1400</v>
       </c>
       <c r="C34" s="8">
         <v>13.680999999999999</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="16">
         <f>ROUND(AVERAGE(C34:C36), 3)</f>
         <v>13.733000000000001</v>
       </c>
       <c r="E34" s="1"/>
-      <c r="F34" s="16">
+      <c r="F34" s="13">
         <v>1400</v>
       </c>
       <c r="G34" s="8">
         <v>9.6880000000000006</v>
       </c>
-      <c r="H34" s="18">
+      <c r="H34" s="16">
         <f>ROUND(AVERAGE(G34:G36),3)</f>
         <v>8.0760000000000005</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="16">
+      <c r="J34" s="13">
         <v>10240</v>
       </c>
       <c r="K34" s="8">
         <v>641.16499999999996</v>
       </c>
-      <c r="L34" s="18">
+      <c r="L34" s="16">
         <f>ROUND(AVERAGE(K34:K36),3)</f>
         <v>636.11300000000006</v>
       </c>
       <c r="M34" s="9">
         <v>273000000000</v>
       </c>
-      <c r="N34" s="13">
+      <c r="N34" s="15">
         <f>ROUND(AVERAGE(M34:M36),3)</f>
         <v>273666666666.66699</v>
       </c>
       <c r="O34" s="9">
         <v>246000000000</v>
       </c>
-      <c r="P34" s="14">
+      <c r="P34" s="17">
         <f>ROUND(AVERAGE(O34:O36),3)</f>
         <v>249000000000</v>
       </c>
       <c r="Q34" s="2"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="17">
+      <c r="R34" s="14"/>
+      <c r="S34" s="19">
         <v>256</v>
       </c>
       <c r="T34" s="5">
         <v>723.73699999999997</v>
       </c>
-      <c r="U34" s="15">
+      <c r="U34" s="20">
         <f>ROUND(AVERAGE(T34:T36),3)</f>
         <v>726.47</v>
       </c>
       <c r="V34" s="5">
         <v>143218278239</v>
       </c>
-      <c r="W34" s="11">
+      <c r="W34" s="18">
         <f>AVERAGE(V34:V36)</f>
         <v>143176100137.33334</v>
       </c>
       <c r="X34" s="5">
         <v>367346569838</v>
       </c>
-      <c r="Y34" s="11">
+      <c r="Y34" s="18">
         <f>AVERAGE(X34:X36)</f>
         <v>367410328828</v>
       </c>
       <c r="Z34" s="1"/>
-      <c r="AA34" s="16">
+      <c r="AA34" s="13">
         <v>10240</v>
       </c>
       <c r="AB34" s="8">
         <v>164.363</v>
       </c>
-      <c r="AC34" s="18">
+      <c r="AC34" s="16">
         <f>ROUND(AVERAGE(AB34:AB36),3)</f>
         <v>170.45500000000001</v>
       </c>
       <c r="AD34" s="9">
         <v>34306078114</v>
       </c>
-      <c r="AE34" s="13">
+      <c r="AE34" s="15">
         <f>ROUND(AVERAGE(AD34:AD36),3)</f>
         <v>34291767867.333</v>
       </c>
       <c r="AF34" s="9">
         <v>32172949858</v>
       </c>
-      <c r="AG34" s="13">
+      <c r="AG34" s="15">
         <f>ROUND(AVERAGE(AF34:AF36),3)</f>
         <v>31721471553.333</v>
       </c>
       <c r="AH34" s="2"/>
-      <c r="AI34" s="16">
+      <c r="AI34" s="13">
         <v>10240</v>
       </c>
       <c r="AJ34" s="8">
         <v>514.25900000000001</v>
       </c>
-      <c r="AK34" s="18">
+      <c r="AK34" s="16">
         <f>ROUND(AVERAGE(AJ34:AJ36),3)</f>
         <v>505.93</v>
       </c>
       <c r="AL34" s="9">
         <v>18284557111</v>
       </c>
-      <c r="AM34" s="13">
+      <c r="AM34" s="15">
         <f>ROUND(AVERAGE(AL34:AL36),3)</f>
         <v>18293411410.667</v>
       </c>
       <c r="AN34" s="9">
         <v>28450513853</v>
       </c>
-      <c r="AO34" s="13">
+      <c r="AO34" s="15">
         <f>ROUND(AVERAGE(AN34:AN36),3)</f>
         <v>28516365693</v>
       </c>
@@ -7161,168 +9817,168 @@
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2"/>
-      <c r="B35" s="12"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="8">
         <v>13.773</v>
       </c>
-      <c r="D35" s="12"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="12"/>
+      <c r="F35" s="14"/>
       <c r="G35" s="8">
         <v>8.3409999999999993</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="14"/>
       <c r="I35" s="2"/>
-      <c r="J35" s="12"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="8">
         <v>637.81399999999996</v>
       </c>
-      <c r="L35" s="12"/>
+      <c r="L35" s="14"/>
       <c r="M35" s="9">
         <v>274000000000</v>
       </c>
-      <c r="N35" s="12"/>
+      <c r="N35" s="14"/>
       <c r="O35" s="9">
         <v>249000000000</v>
       </c>
-      <c r="P35" s="12"/>
+      <c r="P35" s="14"/>
       <c r="Q35" s="2"/>
-      <c r="R35" s="12"/>
-      <c r="S35" s="12"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
       <c r="T35" s="5">
         <v>727.52499999999998</v>
       </c>
-      <c r="U35" s="12"/>
+      <c r="U35" s="14"/>
       <c r="V35" s="5">
         <v>143224878611</v>
       </c>
-      <c r="W35" s="12"/>
+      <c r="W35" s="14"/>
       <c r="X35" s="5">
         <v>364074340380</v>
       </c>
-      <c r="Y35" s="12"/>
+      <c r="Y35" s="14"/>
       <c r="Z35" s="1"/>
-      <c r="AA35" s="12"/>
+      <c r="AA35" s="14"/>
       <c r="AB35" s="8">
         <v>183.34</v>
       </c>
-      <c r="AC35" s="12"/>
+      <c r="AC35" s="14"/>
       <c r="AD35" s="9">
         <v>34259716935</v>
       </c>
-      <c r="AE35" s="12"/>
+      <c r="AE35" s="14"/>
       <c r="AF35" s="9">
         <v>31047623803</v>
       </c>
-      <c r="AG35" s="12"/>
+      <c r="AG35" s="14"/>
       <c r="AH35" s="2"/>
-      <c r="AI35" s="12"/>
+      <c r="AI35" s="14"/>
       <c r="AJ35" s="8">
         <v>500.875</v>
       </c>
-      <c r="AK35" s="12"/>
+      <c r="AK35" s="14"/>
       <c r="AL35" s="9">
         <v>18283628330</v>
       </c>
-      <c r="AM35" s="12"/>
+      <c r="AM35" s="14"/>
       <c r="AN35" s="9">
         <v>28372467189</v>
       </c>
-      <c r="AO35" s="12"/>
+      <c r="AO35" s="14"/>
       <c r="AP35" s="2"/>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2"/>
-      <c r="B36" s="12"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="8">
         <v>13.744999999999999</v>
       </c>
-      <c r="D36" s="12"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="12"/>
+      <c r="F36" s="14"/>
       <c r="G36" s="8">
         <v>6.2</v>
       </c>
-      <c r="H36" s="12"/>
+      <c r="H36" s="14"/>
       <c r="I36" s="2"/>
-      <c r="J36" s="12"/>
+      <c r="J36" s="14"/>
       <c r="K36" s="8">
         <v>629.36</v>
       </c>
-      <c r="L36" s="12"/>
+      <c r="L36" s="14"/>
       <c r="M36" s="9">
         <v>274000000000</v>
       </c>
-      <c r="N36" s="12"/>
+      <c r="N36" s="14"/>
       <c r="O36" s="9">
         <v>252000000000</v>
       </c>
-      <c r="P36" s="12"/>
+      <c r="P36" s="14"/>
       <c r="Q36" s="2"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
       <c r="T36" s="5">
         <v>728.149</v>
       </c>
-      <c r="U36" s="12"/>
+      <c r="U36" s="14"/>
       <c r="V36" s="5">
         <v>143085143562</v>
       </c>
-      <c r="W36" s="12"/>
+      <c r="W36" s="14"/>
       <c r="X36" s="5">
         <v>370810076266</v>
       </c>
-      <c r="Y36" s="12"/>
+      <c r="Y36" s="14"/>
       <c r="Z36" s="1"/>
-      <c r="AA36" s="12"/>
+      <c r="AA36" s="14"/>
       <c r="AB36" s="8">
         <v>163.66200000000001</v>
       </c>
-      <c r="AC36" s="12"/>
+      <c r="AC36" s="14"/>
       <c r="AD36" s="9">
         <v>34309508553</v>
       </c>
-      <c r="AE36" s="12"/>
+      <c r="AE36" s="14"/>
       <c r="AF36" s="9">
         <v>31943840999</v>
       </c>
-      <c r="AG36" s="12"/>
+      <c r="AG36" s="14"/>
       <c r="AH36" s="2"/>
-      <c r="AI36" s="12"/>
+      <c r="AI36" s="14"/>
       <c r="AJ36" s="8">
         <v>502.65499999999997</v>
       </c>
-      <c r="AK36" s="12"/>
+      <c r="AK36" s="14"/>
       <c r="AL36" s="9">
         <v>18312048791</v>
       </c>
-      <c r="AM36" s="12"/>
+      <c r="AM36" s="14"/>
       <c r="AN36" s="9">
         <v>28726116037</v>
       </c>
-      <c r="AO36" s="12"/>
+      <c r="AO36" s="14"/>
       <c r="AP36" s="2"/>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2"/>
-      <c r="B37" s="16">
+      <c r="B37" s="13">
         <v>1800</v>
       </c>
       <c r="C37" s="8">
         <v>26.486000000000001</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="16">
         <f>ROUND(AVERAGE(C37:C39), 3)</f>
         <v>26.492000000000001</v>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="16">
+      <c r="F37" s="13">
         <v>1800</v>
       </c>
       <c r="G37" s="8">
         <v>13.249000000000001</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H37" s="16">
         <f>ROUND(AVERAGE(G37:G39),3)</f>
         <v>13.221</v>
       </c>
@@ -7335,28 +9991,28 @@
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="17">
+      <c r="R37" s="14"/>
+      <c r="S37" s="19">
         <v>512</v>
       </c>
       <c r="T37" s="5">
         <v>725.37199999999996</v>
       </c>
-      <c r="U37" s="15">
+      <c r="U37" s="20">
         <f>ROUND(AVERAGE(T37:T39),3)</f>
         <v>725.37199999999996</v>
       </c>
       <c r="V37" s="5">
         <v>136830908385</v>
       </c>
-      <c r="W37" s="11">
+      <c r="W37" s="18">
         <f>AVERAGE(V37:V39)</f>
         <v>136918587058.33333</v>
       </c>
       <c r="X37" s="5">
         <v>312543938321</v>
       </c>
-      <c r="Y37" s="11">
+      <c r="Y37" s="18">
         <f>AVERAGE(X37:X39)</f>
         <v>313726252335</v>
       </c>
@@ -7380,17 +10036,17 @@
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2"/>
-      <c r="B38" s="12"/>
+      <c r="B38" s="14"/>
       <c r="C38" s="8">
         <v>26.481000000000002</v>
       </c>
-      <c r="D38" s="12"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="12"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="8">
         <v>13.246</v>
       </c>
-      <c r="H38" s="12"/>
+      <c r="H38" s="14"/>
       <c r="I38" s="2"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
@@ -7400,20 +10056,20 @@
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="2"/>
-      <c r="R38" s="12"/>
-      <c r="S38" s="12"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
       <c r="T38" s="5">
         <v>723.55700000000002</v>
       </c>
-      <c r="U38" s="12"/>
+      <c r="U38" s="14"/>
       <c r="V38" s="5">
         <v>136961108269</v>
       </c>
-      <c r="W38" s="12"/>
+      <c r="W38" s="14"/>
       <c r="X38" s="5">
         <v>315406478995</v>
       </c>
-      <c r="Y38" s="12"/>
+      <c r="Y38" s="14"/>
       <c r="Z38" s="1"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="4"/>
@@ -7434,17 +10090,17 @@
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2"/>
-      <c r="B39" s="12"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="8">
         <v>26.507999999999999</v>
       </c>
-      <c r="D39" s="12"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="12"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="8">
         <v>13.169</v>
       </c>
-      <c r="H39" s="12"/>
+      <c r="H39" s="14"/>
       <c r="I39" s="2"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
@@ -7454,20 +10110,20 @@
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
       <c r="Q39" s="2"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
       <c r="T39" s="5">
         <v>727.18600000000004</v>
       </c>
-      <c r="U39" s="12"/>
+      <c r="U39" s="14"/>
       <c r="V39" s="5">
         <v>136963744521</v>
       </c>
-      <c r="W39" s="12"/>
+      <c r="W39" s="14"/>
       <c r="X39" s="5">
         <v>313228339689</v>
       </c>
-      <c r="Y39" s="12"/>
+      <c r="Y39" s="14"/>
       <c r="Z39" s="1"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="4"/>
@@ -7488,24 +10144,24 @@
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2"/>
-      <c r="B40" s="16">
+      <c r="B40" s="13">
         <v>2200</v>
       </c>
       <c r="C40" s="8">
         <v>45.113999999999997</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="16">
         <f>ROUND(AVERAGE(C40:C42), 3)</f>
         <v>45.100999999999999</v>
       </c>
       <c r="E40" s="1"/>
-      <c r="F40" s="16">
+      <c r="F40" s="13">
         <v>2200</v>
       </c>
       <c r="G40" s="8">
         <v>23.795000000000002</v>
       </c>
-      <c r="H40" s="18">
+      <c r="H40" s="16">
         <f>ROUND(AVERAGE(G40:G42),3)</f>
         <v>23.774999999999999</v>
       </c>
@@ -7546,17 +10202,17 @@
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2"/>
-      <c r="B41" s="12"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="8">
         <v>45.051000000000002</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="12"/>
+      <c r="F41" s="14"/>
       <c r="G41" s="8">
         <v>23.716000000000001</v>
       </c>
-      <c r="H41" s="12"/>
+      <c r="H41" s="14"/>
       <c r="I41" s="2"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
@@ -7594,17 +10250,17 @@
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2"/>
-      <c r="B42" s="12"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="8">
         <v>45.137999999999998</v>
       </c>
-      <c r="D42" s="12"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="12"/>
+      <c r="F42" s="14"/>
       <c r="G42" s="8">
         <v>23.814</v>
       </c>
-      <c r="H42" s="12"/>
+      <c r="H42" s="14"/>
       <c r="I42" s="2"/>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
@@ -7642,24 +10298,24 @@
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2"/>
-      <c r="B43" s="16">
+      <c r="B43" s="13">
         <v>2600</v>
       </c>
       <c r="C43" s="8">
         <v>71.081000000000003</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="16">
         <f>ROUND(AVERAGE(C43:C45), 3)</f>
         <v>70.769000000000005</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="16">
+      <c r="F43" s="13">
         <v>2600</v>
       </c>
       <c r="G43" s="8">
         <v>38.543999999999997</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H43" s="16">
         <f>ROUND(AVERAGE(G43:G45),3)</f>
         <v>38.57</v>
       </c>
@@ -7700,17 +10356,17 @@
     </row>
     <row r="44" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2"/>
-      <c r="B44" s="12"/>
+      <c r="B44" s="14"/>
       <c r="C44" s="8">
         <v>70.668000000000006</v>
       </c>
-      <c r="D44" s="12"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="12"/>
+      <c r="F44" s="14"/>
       <c r="G44" s="8">
         <v>38.591000000000001</v>
       </c>
-      <c r="H44" s="12"/>
+      <c r="H44" s="14"/>
       <c r="I44" s="2"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
@@ -7748,17 +10404,17 @@
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2"/>
-      <c r="B45" s="12"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="8">
         <v>70.558999999999997</v>
       </c>
-      <c r="D45" s="12"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="12"/>
+      <c r="F45" s="14"/>
       <c r="G45" s="8">
         <v>38.576000000000001</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="14"/>
       <c r="I45" s="2"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
@@ -7796,24 +10452,24 @@
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2"/>
-      <c r="B46" s="16">
+      <c r="B46" s="13">
         <v>3000</v>
       </c>
       <c r="C46" s="8">
         <v>102.878</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="16">
         <f>ROUND(AVERAGE(C46:C48), 3)</f>
         <v>102.771</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="16">
+      <c r="F46" s="13">
         <v>3000</v>
       </c>
       <c r="G46" s="8">
         <v>59.57</v>
       </c>
-      <c r="H46" s="18">
+      <c r="H46" s="16">
         <f>ROUND(AVERAGE(G46:G48),3)</f>
         <v>59.445</v>
       </c>
@@ -7854,17 +10510,17 @@
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2"/>
-      <c r="B47" s="12"/>
+      <c r="B47" s="14"/>
       <c r="C47" s="8">
         <v>103.024</v>
       </c>
-      <c r="D47" s="12"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="12"/>
+      <c r="F47" s="14"/>
       <c r="G47" s="8">
         <v>59.896000000000001</v>
       </c>
-      <c r="H47" s="12"/>
+      <c r="H47" s="14"/>
       <c r="I47" s="2"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
@@ -7902,17 +10558,17 @@
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2"/>
-      <c r="B48" s="12"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="8">
         <v>102.41</v>
       </c>
-      <c r="D48" s="12"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="12"/>
+      <c r="F48" s="14"/>
       <c r="G48" s="8">
         <v>58.869</v>
       </c>
-      <c r="H48" s="12"/>
+      <c r="H48" s="14"/>
       <c r="I48" s="2"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
@@ -7993,6 +10649,11 @@
       <c r="AP49" s="5"/>
     </row>
     <row r="50" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="10"/>
+      <c r="B50" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="10"/>
       <c r="E50" s="4"/>
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
@@ -8030,6 +10691,13 @@
       <c r="AP50" s="5"/>
     </row>
     <row r="51" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="24">
+        <v>8</v>
+      </c>
+      <c r="C51" s="10"/>
       <c r="E51" s="4"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
@@ -8067,6 +10735,9 @@
       <c r="AP51" s="5"/>
     </row>
     <row r="52" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
       <c r="E52" s="4"/>
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
@@ -49835,43 +52506,199 @@
     </row>
   </sheetData>
   <mergeCells count="264">
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="H4:H6"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="F40:F42"/>
-    <mergeCell ref="F43:F45"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="AI25:AI27"/>
+    <mergeCell ref="AK22:AK24"/>
+    <mergeCell ref="AK25:AK27"/>
+    <mergeCell ref="AK28:AK30"/>
+    <mergeCell ref="Y25:Y27"/>
+    <mergeCell ref="Y28:Y30"/>
+    <mergeCell ref="N25:N27"/>
+    <mergeCell ref="N28:N30"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="P28:P30"/>
+    <mergeCell ref="U25:U27"/>
+    <mergeCell ref="U28:U30"/>
+    <mergeCell ref="R22:R30"/>
+    <mergeCell ref="Y22:Y24"/>
+    <mergeCell ref="S28:S30"/>
+    <mergeCell ref="W28:W30"/>
+    <mergeCell ref="N22:N24"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="U22:U24"/>
+    <mergeCell ref="AO22:AO24"/>
+    <mergeCell ref="S22:S24"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="W22:W24"/>
+    <mergeCell ref="W25:W27"/>
+    <mergeCell ref="AM25:AM27"/>
+    <mergeCell ref="AM28:AM30"/>
+    <mergeCell ref="AO25:AO27"/>
+    <mergeCell ref="AO28:AO30"/>
+    <mergeCell ref="AA22:AA24"/>
+    <mergeCell ref="AA25:AA27"/>
+    <mergeCell ref="AA28:AA30"/>
+    <mergeCell ref="AI28:AI30"/>
+    <mergeCell ref="AC28:AC30"/>
+    <mergeCell ref="AE22:AE24"/>
+    <mergeCell ref="AG28:AG30"/>
+    <mergeCell ref="AI22:AI24"/>
+    <mergeCell ref="AM22:AM24"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="AC25:AC27"/>
+    <mergeCell ref="AE25:AE27"/>
+    <mergeCell ref="AE28:AE30"/>
+    <mergeCell ref="AG22:AG24"/>
+    <mergeCell ref="AG25:AG27"/>
+    <mergeCell ref="Y37:Y39"/>
+    <mergeCell ref="L31:L33"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="N31:N33"/>
+    <mergeCell ref="N34:N36"/>
+    <mergeCell ref="U37:U39"/>
+    <mergeCell ref="U34:U36"/>
+    <mergeCell ref="R31:R39"/>
+    <mergeCell ref="Y31:Y33"/>
+    <mergeCell ref="S37:S39"/>
+    <mergeCell ref="W37:W39"/>
+    <mergeCell ref="P31:P33"/>
+    <mergeCell ref="P34:P36"/>
+    <mergeCell ref="U31:U33"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="L28:L30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="F31:F33"/>
+    <mergeCell ref="J31:J33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="W31:W33"/>
+    <mergeCell ref="W34:W36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="H31:H33"/>
+    <mergeCell ref="H34:H36"/>
+    <mergeCell ref="H37:H39"/>
+    <mergeCell ref="AI31:AI33"/>
+    <mergeCell ref="AC31:AC33"/>
+    <mergeCell ref="AE31:AE33"/>
+    <mergeCell ref="AG31:AG33"/>
+    <mergeCell ref="AK31:AK33"/>
+    <mergeCell ref="AM31:AM33"/>
+    <mergeCell ref="AO31:AO33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="J34:J36"/>
+    <mergeCell ref="D34:D36"/>
+    <mergeCell ref="S31:S33"/>
+    <mergeCell ref="S34:S36"/>
+    <mergeCell ref="AA31:AA33"/>
+    <mergeCell ref="AA34:AA36"/>
+    <mergeCell ref="AI34:AI36"/>
+    <mergeCell ref="AC34:AC36"/>
+    <mergeCell ref="AE34:AE36"/>
+    <mergeCell ref="AG34:AG36"/>
+    <mergeCell ref="AK34:AK36"/>
+    <mergeCell ref="AM34:AM36"/>
+    <mergeCell ref="AO34:AO36"/>
+    <mergeCell ref="Y34:Y36"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="P7:P9"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AE7:AE9"/>
+    <mergeCell ref="AG7:AG9"/>
+    <mergeCell ref="W7:W9"/>
+    <mergeCell ref="Y7:Y9"/>
+    <mergeCell ref="AA7:AA9"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="AK7:AK9"/>
+    <mergeCell ref="AM7:AM9"/>
+    <mergeCell ref="AO7:AO9"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
+    <mergeCell ref="AI2:AO2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AE4:AE6"/>
+    <mergeCell ref="AG4:AG6"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AK4:AK6"/>
+    <mergeCell ref="AM4:AM6"/>
+    <mergeCell ref="AO4:AO6"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="AI10:AI12"/>
+    <mergeCell ref="AE10:AE12"/>
+    <mergeCell ref="AG10:AG12"/>
+    <mergeCell ref="AC7:AC9"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="P4:P6"/>
+    <mergeCell ref="R4:R12"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="U7:U9"/>
+    <mergeCell ref="U4:U6"/>
+    <mergeCell ref="W4:W6"/>
+    <mergeCell ref="Y4:Y6"/>
+    <mergeCell ref="AA4:AA6"/>
+    <mergeCell ref="AC4:AC6"/>
+    <mergeCell ref="AO10:AO12"/>
+    <mergeCell ref="AC10:AC12"/>
+    <mergeCell ref="AC16:AC18"/>
+    <mergeCell ref="W16:W18"/>
+    <mergeCell ref="Y16:Y18"/>
+    <mergeCell ref="AA16:AA18"/>
+    <mergeCell ref="U13:U15"/>
+    <mergeCell ref="U16:U18"/>
+    <mergeCell ref="AE13:AE15"/>
+    <mergeCell ref="AE16:AE18"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="AK13:AK15"/>
+    <mergeCell ref="AM13:AM15"/>
+    <mergeCell ref="AO13:AO15"/>
+    <mergeCell ref="W13:W15"/>
+    <mergeCell ref="Y13:Y15"/>
+    <mergeCell ref="AA13:AA15"/>
+    <mergeCell ref="AI13:AI15"/>
+    <mergeCell ref="AC13:AC15"/>
+    <mergeCell ref="AG13:AG15"/>
+    <mergeCell ref="L19:L21"/>
+    <mergeCell ref="N13:N15"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="P13:P15"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="P19:P21"/>
+    <mergeCell ref="R13:R21"/>
+    <mergeCell ref="AK10:AK12"/>
+    <mergeCell ref="AM10:AM12"/>
+    <mergeCell ref="S16:S18"/>
+    <mergeCell ref="S19:S21"/>
+    <mergeCell ref="U19:U21"/>
+    <mergeCell ref="AC19:AC21"/>
+    <mergeCell ref="AE19:AE21"/>
+    <mergeCell ref="AM16:AM18"/>
+    <mergeCell ref="AO16:AO18"/>
+    <mergeCell ref="AO19:AO21"/>
+    <mergeCell ref="AI16:AI18"/>
+    <mergeCell ref="AI19:AI21"/>
+    <mergeCell ref="AG16:AG18"/>
+    <mergeCell ref="AG19:AG21"/>
+    <mergeCell ref="AK16:AK18"/>
+    <mergeCell ref="AK19:AK21"/>
+    <mergeCell ref="AM19:AM21"/>
     <mergeCell ref="AI7:AI9"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
@@ -49896,212 +52723,56 @@
     <mergeCell ref="AA19:AA21"/>
     <mergeCell ref="N19:N21"/>
     <mergeCell ref="S13:S15"/>
-    <mergeCell ref="S16:S18"/>
-    <mergeCell ref="S19:S21"/>
-    <mergeCell ref="U19:U21"/>
-    <mergeCell ref="AC19:AC21"/>
-    <mergeCell ref="AE19:AE21"/>
-    <mergeCell ref="AM16:AM18"/>
-    <mergeCell ref="AO16:AO18"/>
-    <mergeCell ref="AO19:AO21"/>
-    <mergeCell ref="AI16:AI18"/>
-    <mergeCell ref="AI19:AI21"/>
-    <mergeCell ref="AG16:AG18"/>
-    <mergeCell ref="AG19:AG21"/>
-    <mergeCell ref="AK16:AK18"/>
-    <mergeCell ref="AK19:AK21"/>
-    <mergeCell ref="AM19:AM21"/>
+    <mergeCell ref="F43:F45"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="F40:F42"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="H28:H30"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="H4:H6"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="L10:L12"/>
     <mergeCell ref="L13:L15"/>
     <mergeCell ref="L16:L18"/>
-    <mergeCell ref="L19:L21"/>
-    <mergeCell ref="N13:N15"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="P13:P15"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="P19:P21"/>
-    <mergeCell ref="R13:R21"/>
-    <mergeCell ref="AK10:AK12"/>
-    <mergeCell ref="AM10:AM12"/>
-    <mergeCell ref="AO10:AO12"/>
-    <mergeCell ref="AC10:AC12"/>
-    <mergeCell ref="AC16:AC18"/>
-    <mergeCell ref="W16:W18"/>
-    <mergeCell ref="Y16:Y18"/>
-    <mergeCell ref="AA16:AA18"/>
-    <mergeCell ref="U13:U15"/>
-    <mergeCell ref="U16:U18"/>
-    <mergeCell ref="AE13:AE15"/>
-    <mergeCell ref="AE16:AE18"/>
-    <mergeCell ref="U10:U12"/>
-    <mergeCell ref="AK13:AK15"/>
-    <mergeCell ref="AM13:AM15"/>
-    <mergeCell ref="AO13:AO15"/>
-    <mergeCell ref="W13:W15"/>
-    <mergeCell ref="Y13:Y15"/>
-    <mergeCell ref="AA13:AA15"/>
-    <mergeCell ref="AI13:AI15"/>
-    <mergeCell ref="AC13:AC15"/>
-    <mergeCell ref="AG13:AG15"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="D10:D12"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="AI10:AI12"/>
-    <mergeCell ref="AE10:AE12"/>
-    <mergeCell ref="AG10:AG12"/>
-    <mergeCell ref="AC7:AC9"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="P4:P6"/>
-    <mergeCell ref="R4:R12"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="U7:U9"/>
-    <mergeCell ref="U4:U6"/>
-    <mergeCell ref="W4:W6"/>
-    <mergeCell ref="Y4:Y6"/>
-    <mergeCell ref="AA4:AA6"/>
-    <mergeCell ref="AC4:AC6"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AK7:AK9"/>
-    <mergeCell ref="AM7:AM9"/>
-    <mergeCell ref="AO7:AO9"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="AI2:AO2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AE4:AE6"/>
-    <mergeCell ref="AG4:AG6"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AK4:AK6"/>
-    <mergeCell ref="AM4:AM6"/>
-    <mergeCell ref="AO4:AO6"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="P7:P9"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AE7:AE9"/>
-    <mergeCell ref="AG7:AG9"/>
-    <mergeCell ref="W7:W9"/>
-    <mergeCell ref="Y7:Y9"/>
-    <mergeCell ref="AA7:AA9"/>
-    <mergeCell ref="AI31:AI33"/>
-    <mergeCell ref="AC31:AC33"/>
-    <mergeCell ref="AE31:AE33"/>
-    <mergeCell ref="AG31:AG33"/>
-    <mergeCell ref="AK31:AK33"/>
-    <mergeCell ref="AM31:AM33"/>
-    <mergeCell ref="AO31:AO33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="F34:F36"/>
-    <mergeCell ref="J34:J36"/>
-    <mergeCell ref="D34:D36"/>
-    <mergeCell ref="S31:S33"/>
-    <mergeCell ref="S34:S36"/>
-    <mergeCell ref="AA31:AA33"/>
-    <mergeCell ref="AA34:AA36"/>
-    <mergeCell ref="AI34:AI36"/>
-    <mergeCell ref="AC34:AC36"/>
-    <mergeCell ref="AE34:AE36"/>
-    <mergeCell ref="AG34:AG36"/>
-    <mergeCell ref="AK34:AK36"/>
-    <mergeCell ref="AM34:AM36"/>
-    <mergeCell ref="AO34:AO36"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="H28:H30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="L28:L30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="F31:F33"/>
-    <mergeCell ref="J31:J33"/>
-    <mergeCell ref="D31:D33"/>
-    <mergeCell ref="W31:W33"/>
-    <mergeCell ref="W34:W36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="D37:D39"/>
-    <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
-    <mergeCell ref="H37:H39"/>
-    <mergeCell ref="Y34:Y36"/>
-    <mergeCell ref="Y37:Y39"/>
-    <mergeCell ref="L31:L33"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="N31:N33"/>
-    <mergeCell ref="N34:N36"/>
-    <mergeCell ref="U37:U39"/>
-    <mergeCell ref="U34:U36"/>
-    <mergeCell ref="R31:R39"/>
-    <mergeCell ref="Y31:Y33"/>
-    <mergeCell ref="S37:S39"/>
-    <mergeCell ref="W37:W39"/>
-    <mergeCell ref="P31:P33"/>
-    <mergeCell ref="P34:P36"/>
-    <mergeCell ref="U31:U33"/>
-    <mergeCell ref="AO22:AO24"/>
-    <mergeCell ref="S22:S24"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="W22:W24"/>
-    <mergeCell ref="W25:W27"/>
-    <mergeCell ref="AM25:AM27"/>
-    <mergeCell ref="AM28:AM30"/>
-    <mergeCell ref="AO25:AO27"/>
-    <mergeCell ref="AO28:AO30"/>
-    <mergeCell ref="AA22:AA24"/>
-    <mergeCell ref="AA25:AA27"/>
-    <mergeCell ref="AA28:AA30"/>
-    <mergeCell ref="AI28:AI30"/>
-    <mergeCell ref="AC28:AC30"/>
-    <mergeCell ref="AE22:AE24"/>
-    <mergeCell ref="AG28:AG30"/>
-    <mergeCell ref="AI22:AI24"/>
-    <mergeCell ref="AM22:AM24"/>
-    <mergeCell ref="AC22:AC24"/>
-    <mergeCell ref="AC25:AC27"/>
-    <mergeCell ref="AE25:AE27"/>
-    <mergeCell ref="AE28:AE30"/>
-    <mergeCell ref="AG22:AG24"/>
-    <mergeCell ref="AG25:AG27"/>
-    <mergeCell ref="AI25:AI27"/>
-    <mergeCell ref="AK22:AK24"/>
-    <mergeCell ref="AK25:AK27"/>
-    <mergeCell ref="AK28:AK30"/>
-    <mergeCell ref="Y25:Y27"/>
-    <mergeCell ref="Y28:Y30"/>
-    <mergeCell ref="N25:N27"/>
-    <mergeCell ref="N28:N30"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="P28:P30"/>
-    <mergeCell ref="U25:U27"/>
-    <mergeCell ref="U28:U30"/>
-    <mergeCell ref="R22:R30"/>
-    <mergeCell ref="Y22:Y24"/>
-    <mergeCell ref="S28:S30"/>
-    <mergeCell ref="W28:W30"/>
-    <mergeCell ref="N22:N24"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="U22:U24"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D24 F4:F24 H4:H24 I4:I36 L4:L36 N4:N36 P4:P36 AC4:AC36 AE4:AE36 AG4:AG36 AK4:AK36 AM4:AM36 AO4:AP36 Y4:Y39 H28:H62 D28:D1002">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -50113,11 +52784,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB20B9E0-B284-9841-AD90-2EF8F1599E54}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
@@ -50130,10 +52805,10 @@
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -50141,162 +52816,162 @@
       <c r="A3" s="16">
         <v>600</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="13">
         <f>Data!D4</f>
         <v>0.189</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="13">
         <f>Data!D28</f>
         <v>1.7969999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>1000</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="13">
         <f>Data!D7</f>
         <v>1.095</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="13">
         <f>Data!D31</f>
         <v>5.7629999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>1400</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="13">
         <f>Data!D10</f>
         <v>3.1880000000000002</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="13">
         <f>Data!D34</f>
         <v>13.733000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>1800</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="13">
         <f>Data!D13</f>
         <v>17.236999999999998</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="13">
         <f>Data!D37</f>
         <v>26.492000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>2200</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="13">
         <f>Data!D16</f>
         <v>38.023000000000003</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="13">
         <f>Data!D40</f>
         <v>45.100999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>2600</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="13">
         <f>Data!D19</f>
         <v>68.037999999999997</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="13">
         <f>Data!D43</f>
         <v>70.769000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>3000</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="13">
         <f>Data!D22</f>
         <v>114.255</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="13">
         <f>Data!D46</f>
         <v>102.771</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
@@ -50309,10 +52984,10 @@
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="12" t="s">
         <v>17</v>
       </c>
     </row>
@@ -50330,12 +53005,12 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
+      <c r="A28" s="27"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
+      <c r="A29" s="27"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
     </row>
@@ -50353,12 +53028,12 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
+      <c r="A31" s="27"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
+      <c r="A32" s="27"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
     </row>
@@ -50376,12 +53051,12 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
+      <c r="A34" s="27"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
+      <c r="A35" s="27"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
     </row>
@@ -50399,12 +53074,12 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" s="12"/>
+      <c r="A37" s="27"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
+      <c r="A38" s="27"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
     </row>
@@ -50422,12 +53097,12 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
+      <c r="A40" s="27"/>
       <c r="B40" s="26"/>
       <c r="C40" s="26"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" s="12"/>
+      <c r="A41" s="27"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
     </row>
@@ -50445,12 +53120,12 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" s="12"/>
+      <c r="A43" s="27"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" s="12"/>
+      <c r="A44" s="27"/>
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
     </row>
@@ -50468,41 +53143,31 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" s="12"/>
+      <c r="A46" s="27"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" s="12"/>
+      <c r="A47" s="27"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C39:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
     <mergeCell ref="C3:C5"/>
     <mergeCell ref="C6:C8"/>
     <mergeCell ref="C9:C11"/>
@@ -50514,24 +53179,29 @@
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C39:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C45:C47"/>
   </mergeCells>
-  <conditionalFormatting sqref="B3:B23">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="B3:C23">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B3))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C23">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50540,6 +53210,739 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE1C01-DBEF-9349-A28C-200F38301EDA}">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="16">
+        <v>600</v>
+      </c>
+      <c r="B3" s="26">
+        <f>Data!L4</f>
+        <v>0.104</v>
+      </c>
+      <c r="C3" s="26">
+        <f>Data!AC4</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D3" s="25">
+        <f>Data!AK4</f>
+        <v>0.16</v>
+      </c>
+      <c r="E3" s="25">
+        <f>ROUND(B3/C3,3)</f>
+        <v>6.9329999999999998</v>
+      </c>
+      <c r="F3" s="25">
+        <f>ROUND(B3/D3,3)</f>
+        <v>0.65</v>
+      </c>
+      <c r="G3" s="25">
+        <f>ROUND(E3/Data!$B$51,3)</f>
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="H3" s="25">
+        <f>ROUND(F3/Data!$B$51,3)</f>
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="16">
+        <v>1000</v>
+      </c>
+      <c r="B6" s="26">
+        <f>Data!L7</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="C6" s="26">
+        <f>Data!AC7</f>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D6" s="25">
+        <f>Data!AK7</f>
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" ref="E6:E35" si="0">ROUND(B6/C6,3)</f>
+        <v>8</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" ref="F6:F35" si="1">ROUND(B6/D6,3)</f>
+        <v>1.091</v>
+      </c>
+      <c r="G6" s="25">
+        <f>ROUND(E6/Data!$B$51,3)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="25">
+        <f>ROUND(F6/Data!$B$51,3)</f>
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
+        <v>1400</v>
+      </c>
+      <c r="B9" s="26">
+        <f>Data!L10</f>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="C9" s="26">
+        <f>Data!AC10</f>
+        <v>0.219</v>
+      </c>
+      <c r="D9" s="25">
+        <f>Data!AK10</f>
+        <v>1.353</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" ref="E9:E35" si="2">ROUND(B9/C9,3)</f>
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" ref="F9:F35" si="3">ROUND(B9/D9,3)</f>
+        <v>1.093</v>
+      </c>
+      <c r="G9" s="25">
+        <f>ROUND(E9/Data!$B$51,3)</f>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="H9" s="25">
+        <f>ROUND(F9/Data!$B$51,3)</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
+        <v>1800</v>
+      </c>
+      <c r="B12" s="26">
+        <f>Data!L13</f>
+        <v>3.226</v>
+      </c>
+      <c r="C12" s="26">
+        <f>Data!AC13</f>
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D12" s="25">
+        <f>Data!AK13</f>
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="E12" s="25">
+        <f t="shared" ref="E12:E35" si="4">ROUND(B12/C12,3)</f>
+        <v>5.8230000000000004</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" ref="F12:F35" si="5">ROUND(B12/D12,3)</f>
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="G12" s="25">
+        <f>ROUND(E12/Data!$B$51,3)</f>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H12" s="25">
+        <f>ROUND(F12/Data!$B$51,3)</f>
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
+        <v>2200</v>
+      </c>
+      <c r="B15" s="26">
+        <f>Data!L16</f>
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="C15" s="26">
+        <f>Data!AC16</f>
+        <v>1.2629999999999999</v>
+      </c>
+      <c r="D15" s="25">
+        <f>Data!AK16</f>
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="E15" s="25">
+        <f t="shared" ref="E15:E35" si="6">ROUND(B15/C15,3)</f>
+        <v>4.7809999999999997</v>
+      </c>
+      <c r="F15" s="25">
+        <f t="shared" ref="F15:F35" si="7">ROUND(B15/D15,3)</f>
+        <v>1.093</v>
+      </c>
+      <c r="G15" s="25">
+        <f>ROUND(E15/Data!$B$51,3)</f>
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="H15" s="25">
+        <f>ROUND(F15/Data!$B$51,3)</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="16">
+        <v>2600</v>
+      </c>
+      <c r="B18" s="26">
+        <f>Data!L19</f>
+        <v>10.103999999999999</v>
+      </c>
+      <c r="C18" s="26">
+        <f>Data!AC19</f>
+        <v>1.996</v>
+      </c>
+      <c r="D18" s="25">
+        <f>Data!AK19</f>
+        <v>9.2189999999999994</v>
+      </c>
+      <c r="E18" s="25">
+        <f t="shared" ref="E18:E35" si="8">ROUND(B18/C18,3)</f>
+        <v>5.0620000000000003</v>
+      </c>
+      <c r="F18" s="25">
+        <f t="shared" ref="F18:F35" si="9">ROUND(B18/D18,3)</f>
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="G18" s="25">
+        <f>ROUND(E18/Data!$B$51,3)</f>
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="H18" s="25">
+        <f>ROUND(F18/Data!$B$51,3)</f>
+        <v>0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="16">
+        <v>3000</v>
+      </c>
+      <c r="B21" s="26">
+        <f>Data!L22</f>
+        <v>16.646000000000001</v>
+      </c>
+      <c r="C21" s="26">
+        <f>Data!AC22</f>
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="D21" s="25">
+        <f>Data!AK22</f>
+        <v>13.6</v>
+      </c>
+      <c r="E21" s="25">
+        <f t="shared" ref="E21:E35" si="10">ROUND(B21/C21,3)</f>
+        <v>5.89</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" ref="F21:F35" si="11">ROUND(B21/D21,3)</f>
+        <v>1.224</v>
+      </c>
+      <c r="G21" s="25">
+        <f>ROUND(E21/Data!$B$51,3)</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="H21" s="25">
+        <f>ROUND(F21/Data!$B$51,3)</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="16">
+        <v>4096</v>
+      </c>
+      <c r="B24" s="26">
+        <f>Data!L25</f>
+        <v>40.503</v>
+      </c>
+      <c r="C24" s="26">
+        <f>Data!AC25</f>
+        <v>7.24</v>
+      </c>
+      <c r="D24" s="25">
+        <f>Data!AK25</f>
+        <v>33.082999999999998</v>
+      </c>
+      <c r="E24" s="25">
+        <f t="shared" ref="E24:E35" si="12">ROUND(B24/C24,3)</f>
+        <v>5.5940000000000003</v>
+      </c>
+      <c r="F24" s="25">
+        <f t="shared" ref="F24:F35" si="13">ROUND(B24/D24,3)</f>
+        <v>1.224</v>
+      </c>
+      <c r="G24" s="25">
+        <f>ROUND(E24/Data!$B$51,3)</f>
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="H24" s="25">
+        <f>ROUND(F24/Data!$B$51,3)</f>
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
+        <v>6144</v>
+      </c>
+      <c r="B27" s="26">
+        <f>Data!L28</f>
+        <v>136.88900000000001</v>
+      </c>
+      <c r="C27" s="26">
+        <f>Data!AC28</f>
+        <v>27.321999999999999</v>
+      </c>
+      <c r="D27" s="25">
+        <f>Data!AK28</f>
+        <v>104.036</v>
+      </c>
+      <c r="E27" s="25">
+        <f t="shared" ref="E27:E35" si="14">ROUND(B27/C27,3)</f>
+        <v>5.01</v>
+      </c>
+      <c r="F27" s="25">
+        <f t="shared" ref="F27:F35" si="15">ROUND(B27/D27,3)</f>
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="G27" s="25">
+        <f>ROUND(E27/Data!$B$51,3)</f>
+        <v>0.626</v>
+      </c>
+      <c r="H27" s="25">
+        <f>ROUND(F27/Data!$B$51,3)</f>
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="16">
+        <v>8192</v>
+      </c>
+      <c r="B30" s="26">
+        <f>Data!L31</f>
+        <v>330.24299999999999</v>
+      </c>
+      <c r="C30" s="26">
+        <f>Data!AC31</f>
+        <v>72.872</v>
+      </c>
+      <c r="D30" s="25">
+        <f>Data!AK31</f>
+        <v>256.863</v>
+      </c>
+      <c r="E30" s="25">
+        <f t="shared" ref="E30:E35" si="16">ROUND(B30/C30,3)</f>
+        <v>4.532</v>
+      </c>
+      <c r="F30" s="25">
+        <f t="shared" ref="F30:F35" si="17">ROUND(B30/D30,3)</f>
+        <v>1.286</v>
+      </c>
+      <c r="G30" s="25">
+        <f>ROUND(E30/Data!$B$51,3)</f>
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="H30" s="25">
+        <f>ROUND(F30/Data!$B$51,3)</f>
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="27"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="16">
+        <v>10240</v>
+      </c>
+      <c r="B33" s="26">
+        <f>Data!L34</f>
+        <v>636.11300000000006</v>
+      </c>
+      <c r="C33" s="26">
+        <f>Data!AC34</f>
+        <v>170.45500000000001</v>
+      </c>
+      <c r="D33" s="25">
+        <f>Data!AK34</f>
+        <v>505.93</v>
+      </c>
+      <c r="E33" s="25">
+        <f t="shared" ref="E33:E35" si="18">ROUND(B33/C33,3)</f>
+        <v>3.7320000000000002</v>
+      </c>
+      <c r="F33" s="25">
+        <f t="shared" ref="F33:F35" si="19">ROUND(B33/D33,3)</f>
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="G33" s="25">
+        <f>ROUND(E33/Data!$B$51,3)</f>
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="H33" s="25">
+        <f>ROUND(F33/Data!$B$51,3)</f>
+        <v>0.157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="89">
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A5800-5FCA-194D-8569-9B1CEC98C6E1}">
   <dimension ref="A2:D35"/>
   <sheetViews>
@@ -50553,281 +53956,262 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>600</v>
       </c>
-      <c r="B3" s="20">
+      <c r="B3" s="23">
         <f>Data!D4</f>
         <v>0.189</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="23">
         <f>Data!L4</f>
         <v>0.104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="16">
+      <c r="A6" s="13">
         <v>1000</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="23">
         <f>Data!D7</f>
         <v>1.095</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="23">
         <f>Data!L7</f>
         <v>0.52800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="16">
+      <c r="A9" s="13">
         <v>1400</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="23">
         <f>Data!D10</f>
         <v>3.1880000000000002</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="23">
         <f>Data!L10</f>
         <v>1.4790000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>1800</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="23">
         <f>Data!D13</f>
         <v>17.236999999999998</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="23">
         <f>Data!L13</f>
         <v>3.226</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="12"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="16">
+      <c r="A15" s="13">
         <v>2200</v>
       </c>
-      <c r="B15" s="20">
+      <c r="B15" s="23">
         <f>Data!D16</f>
         <v>38.023000000000003</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="23">
         <f>Data!L16</f>
         <v>6.0380000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="16">
+      <c r="A18" s="13">
         <v>2600</v>
       </c>
-      <c r="B18" s="20">
+      <c r="B18" s="23">
         <f>Data!D19</f>
         <v>68.037999999999997</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="23">
         <f>Data!L19</f>
         <v>10.103999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="16">
+      <c r="A21" s="13">
         <v>3000</v>
       </c>
-      <c r="B21" s="20">
+      <c r="B21" s="23">
         <f>Data!D22</f>
         <v>114.255</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="23">
         <f>Data!L22</f>
         <v>16.646000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="16">
+      <c r="A24" s="13">
         <v>4096</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23">
         <f>Data!L25</f>
         <v>40.503</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="16">
+      <c r="A27" s="13">
         <v>6144</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23">
         <f>Data!L28</f>
         <v>136.88900000000001</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="16">
+      <c r="A30" s="13">
         <v>8192</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20">
+      <c r="B30" s="23"/>
+      <c r="C30" s="23">
         <f>Data!L31</f>
         <v>330.24299999999999</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="16">
+      <c r="A33" s="13">
         <v>10240</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23">
         <f>Data!L34</f>
         <v>636.11300000000006</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="12"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="A34" s="14"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="12"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="A33:A35"/>
@@ -50842,6 +54226,25 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/assign1/doc/cpd_data.xlsx
+++ b/assign1/doc/cpd_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniorama/Desktop/LEIC/6_SEM/CPD/g17/assign1/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9283F50D-7BC5-5F4D-A3A1-89833113C365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718C5FD-B7E0-E64F-AD70-2AF5823D037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>OnMult C++</t>
   </si>
@@ -137,6 +137,21 @@
   </si>
   <si>
     <t>v</t>
+  </si>
+  <si>
+    <t>Multi-Core v1 - Mflops</t>
+  </si>
+  <si>
+    <t>Multi-Core v2 - Mflops</t>
+  </si>
+  <si>
+    <t>Algorithms Comparison C++</t>
+  </si>
+  <si>
+    <t>Standard Multiplication - Time(s)</t>
+  </si>
+  <si>
+    <t>Line Multiplication - Time(s)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -314,6 +329,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -6717,8 +6733,8 @@
   </sheetPr>
   <dimension ref="A1:AP1002"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8749,7 +8765,7 @@
       <c r="E23" s="6">
         <v>50300000000</v>
       </c>
-      <c r="F23" s="14"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="6">
         <v>96900000000</v>
       </c>
@@ -8823,7 +8839,7 @@
       <c r="E24" s="6">
         <v>50300000000</v>
       </c>
-      <c r="F24" s="14"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="6">
         <v>94400000000</v>
       </c>
@@ -52782,10 +52798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB20B9E0-B284-9841-AD90-2EF8F1599E54}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -53152,8 +53168,162 @@
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
     </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="16">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="27"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="27"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="16">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="27"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="27"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="16">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="27"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="27"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="16">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="27"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" s="27"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" s="16">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" s="27"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" s="27"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" s="16">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" s="27"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" s="27"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="16">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="27"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="27"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="16">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="27"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" s="27"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" s="16">
+        <v>6144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" s="27"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A80" s="27"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A81" s="16">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A82" s="27"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A83" s="27"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A84" s="16">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A85" s="27"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A86" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="56">
+    <mergeCell ref="A81:A83"/>
+    <mergeCell ref="A84:A86"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A75:A77"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
@@ -53211,10 +53381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE1C01-DBEF-9349-A28C-200F38301EDA}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -53224,9 +53394,10 @@
     <col min="3" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
         <v>19</v>
       </c>
@@ -53235,8 +53406,12 @@
       <c r="D1" s="22"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -53261,8 +53436,14 @@
       <c r="H2" s="12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="16">
         <v>600</v>
       </c>
@@ -53294,8 +53475,16 @@
         <f>ROUND(F3/Data!$B$51,3)</f>
         <v>8.1000000000000003E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" s="25">
+        <f>POWER(2*A3,3)/C3</f>
+        <v>115200000000</v>
+      </c>
+      <c r="J3" s="25">
+        <f>POWER(2*A3,3)/D3</f>
+        <v>10800000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
@@ -53304,8 +53493,10 @@
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="27"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -53314,8 +53505,10 @@
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="16">
         <v>1000</v>
       </c>
@@ -53347,8 +53540,16 @@
         <f>ROUND(F6/Data!$B$51,3)</f>
         <v>0.13600000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6" s="25">
+        <f t="shared" ref="I6:I35" si="2">POWER(2*A6,3)/C6</f>
+        <v>121212121212.1212</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" ref="J6:J35" si="3">POWER(2*A6,3)/D6</f>
+        <v>16528925619.834711</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="27"/>
       <c r="B7" s="26"/>
       <c r="C7" s="26"/>
@@ -53357,8 +53558,10 @@
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="27"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -53367,8 +53570,10 @@
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="16">
         <v>1400</v>
       </c>
@@ -53385,11 +53590,11 @@
         <v>1.353</v>
       </c>
       <c r="E9" s="25">
-        <f t="shared" ref="E9:E35" si="2">ROUND(B9/C9,3)</f>
+        <f t="shared" ref="E9:E35" si="4">ROUND(B9/C9,3)</f>
         <v>6.7530000000000001</v>
       </c>
       <c r="F9" s="25">
-        <f t="shared" ref="F9:F35" si="3">ROUND(B9/D9,3)</f>
+        <f t="shared" ref="F9:F35" si="5">ROUND(B9/D9,3)</f>
         <v>1.093</v>
       </c>
       <c r="G9" s="25">
@@ -53400,8 +53605,16 @@
         <f>ROUND(F9/Data!$B$51,3)</f>
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9" s="25">
+        <f t="shared" ref="I9:I35" si="6">POWER(2*A9,3)/C9</f>
+        <v>100237442922.37444</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" ref="J9:J35" si="7">POWER(2*A9,3)/D9</f>
+        <v>16224685883.222469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
       <c r="B10" s="26"/>
       <c r="C10" s="26"/>
@@ -53410,8 +53623,10 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -53420,8 +53635,10 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="16">
         <v>1800</v>
       </c>
@@ -53438,11 +53655,11 @@
         <v>3.0510000000000002</v>
       </c>
       <c r="E12" s="25">
-        <f t="shared" ref="E12:E35" si="4">ROUND(B12/C12,3)</f>
+        <f t="shared" ref="E12:E35" si="8">ROUND(B12/C12,3)</f>
         <v>5.8230000000000004</v>
       </c>
       <c r="F12" s="25">
-        <f t="shared" ref="F12:F35" si="5">ROUND(B12/D12,3)</f>
+        <f t="shared" ref="F12:F35" si="9">ROUND(B12/D12,3)</f>
         <v>1.0569999999999999</v>
       </c>
       <c r="G12" s="25">
@@ -53453,8 +53670,16 @@
         <f>ROUND(F12/Data!$B$51,3)</f>
         <v>0.13200000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12" s="25">
+        <f t="shared" ref="I12:I35" si="10">POWER(2*A12,3)/C12</f>
+        <v>84216606498.194931</v>
+      </c>
+      <c r="J12" s="25">
+        <f t="shared" ref="J12:J35" si="11">POWER(2*A12,3)/D12</f>
+        <v>15292035398.230087</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
@@ -53463,8 +53688,10 @@
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
       <c r="B14" s="26"/>
       <c r="C14" s="26"/>
@@ -53473,8 +53700,10 @@
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="16">
         <v>2200</v>
       </c>
@@ -53491,11 +53720,11 @@
         <v>5.5250000000000004</v>
       </c>
       <c r="E15" s="25">
-        <f t="shared" ref="E15:E35" si="6">ROUND(B15/C15,3)</f>
+        <f t="shared" ref="E15:E35" si="12">ROUND(B15/C15,3)</f>
         <v>4.7809999999999997</v>
       </c>
       <c r="F15" s="25">
-        <f t="shared" ref="F15:F35" si="7">ROUND(B15/D15,3)</f>
+        <f t="shared" ref="F15:F35" si="13">ROUND(B15/D15,3)</f>
         <v>1.093</v>
       </c>
       <c r="G15" s="25">
@@ -53506,8 +53735,16 @@
         <f>ROUND(F15/Data!$B$51,3)</f>
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15" s="25">
+        <f t="shared" ref="I15:I35" si="14">POWER(2*A15,3)/C15</f>
+        <v>67445764053.840065</v>
+      </c>
+      <c r="J15" s="25">
+        <f t="shared" ref="J15:J35" si="15">POWER(2*A15,3)/D15</f>
+        <v>15417918552.036198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
       <c r="B16" s="26"/>
       <c r="C16" s="26"/>
@@ -53516,8 +53753,10 @@
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
       <c r="B17" s="26"/>
       <c r="C17" s="26"/>
@@ -53526,8 +53765,10 @@
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="16">
         <v>2600</v>
       </c>
@@ -53544,11 +53785,11 @@
         <v>9.2189999999999994</v>
       </c>
       <c r="E18" s="25">
-        <f t="shared" ref="E18:E35" si="8">ROUND(B18/C18,3)</f>
+        <f t="shared" ref="E18:E35" si="16">ROUND(B18/C18,3)</f>
         <v>5.0620000000000003</v>
       </c>
       <c r="F18" s="25">
-        <f t="shared" ref="F18:F35" si="9">ROUND(B18/D18,3)</f>
+        <f t="shared" ref="F18:F35" si="17">ROUND(B18/D18,3)</f>
         <v>1.0960000000000001</v>
       </c>
       <c r="G18" s="25">
@@ -53559,8 +53800,16 @@
         <f>ROUND(F18/Data!$B$51,3)</f>
         <v>0.13700000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18" s="25">
+        <f t="shared" ref="I18:I35" si="18">POWER(2*A18,3)/C18</f>
+        <v>70444889779.559113</v>
+      </c>
+      <c r="J18" s="25">
+        <f t="shared" ref="J18:J35" si="19">POWER(2*A18,3)/D18</f>
+        <v>15251979607.332684</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
@@ -53569,8 +53818,10 @@
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
       <c r="B20" s="26"/>
       <c r="C20" s="26"/>
@@ -53579,8 +53830,10 @@
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="16">
         <v>3000</v>
       </c>
@@ -53597,11 +53850,11 @@
         <v>13.6</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" ref="E21:E35" si="10">ROUND(B21/C21,3)</f>
+        <f t="shared" ref="E21:E35" si="20">ROUND(B21/C21,3)</f>
         <v>5.89</v>
       </c>
       <c r="F21" s="25">
-        <f t="shared" ref="F21:F35" si="11">ROUND(B21/D21,3)</f>
+        <f t="shared" ref="F21:F35" si="21">ROUND(B21/D21,3)</f>
         <v>1.224</v>
       </c>
       <c r="G21" s="25">
@@ -53612,8 +53865,16 @@
         <f>ROUND(F21/Data!$B$51,3)</f>
         <v>0.153</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21" s="25">
+        <f t="shared" ref="I21:I35" si="22">POWER(2*A21,3)/C21</f>
+        <v>76433121019.108276</v>
+      </c>
+      <c r="J21" s="25">
+        <f t="shared" ref="J21:J35" si="23">POWER(2*A21,3)/D21</f>
+        <v>15882352941.176472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
       <c r="B22" s="26"/>
       <c r="C22" s="26"/>
@@ -53622,8 +53883,10 @@
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
       <c r="B23" s="26"/>
       <c r="C23" s="26"/>
@@ -53632,8 +53895,10 @@
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="16">
         <v>4096</v>
       </c>
@@ -53650,11 +53915,11 @@
         <v>33.082999999999998</v>
       </c>
       <c r="E24" s="25">
-        <f t="shared" ref="E24:E35" si="12">ROUND(B24/C24,3)</f>
+        <f t="shared" ref="E24:E35" si="24">ROUND(B24/C24,3)</f>
         <v>5.5940000000000003</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" ref="F24:F35" si="13">ROUND(B24/D24,3)</f>
+        <f t="shared" ref="F24:F35" si="25">ROUND(B24/D24,3)</f>
         <v>1.224</v>
       </c>
       <c r="G24" s="25">
@@ -53665,8 +53930,16 @@
         <f>ROUND(F24/Data!$B$51,3)</f>
         <v>0.153</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24" s="25">
+        <f t="shared" ref="I24:I35" si="26">POWER(2*A24,3)/C24</f>
+        <v>75933123465.193375</v>
+      </c>
+      <c r="J24" s="25">
+        <f t="shared" ref="J24:J35" si="27">POWER(2*A24,3)/D24</f>
+        <v>16617471628.570566</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
       <c r="B25" s="26"/>
       <c r="C25" s="26"/>
@@ -53675,8 +53948,10 @@
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -53685,8 +53960,10 @@
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="16">
         <v>6144</v>
       </c>
@@ -53703,11 +53980,11 @@
         <v>104.036</v>
       </c>
       <c r="E27" s="25">
-        <f t="shared" ref="E27:E35" si="14">ROUND(B27/C27,3)</f>
+        <f t="shared" ref="E27:E35" si="28">ROUND(B27/C27,3)</f>
         <v>5.01</v>
       </c>
       <c r="F27" s="25">
-        <f t="shared" ref="F27:F35" si="15">ROUND(B27/D27,3)</f>
+        <f t="shared" ref="F27:F35" si="29">ROUND(B27/D27,3)</f>
         <v>1.3160000000000001</v>
       </c>
       <c r="G27" s="25">
@@ -53718,8 +53995,16 @@
         <f>ROUND(F27/Data!$B$51,3)</f>
         <v>0.16500000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27" s="25">
+        <f t="shared" ref="I27:I35" si="30">POWER(2*A27,3)/C27</f>
+        <v>67909591972.476395</v>
+      </c>
+      <c r="J27" s="25">
+        <f t="shared" ref="J27:J35" si="31">POWER(2*A27,3)/D27</f>
+        <v>17834459916.490444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
       <c r="B28" s="26"/>
       <c r="C28" s="26"/>
@@ -53728,8 +54013,10 @@
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
       <c r="B29" s="26"/>
       <c r="C29" s="26"/>
@@ -53738,8 +54025,10 @@
       <c r="F29" s="25"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="16">
         <v>8192</v>
       </c>
@@ -53756,11 +54045,11 @@
         <v>256.863</v>
       </c>
       <c r="E30" s="25">
-        <f t="shared" ref="E30:E35" si="16">ROUND(B30/C30,3)</f>
+        <f t="shared" ref="E30:E35" si="32">ROUND(B30/C30,3)</f>
         <v>4.532</v>
       </c>
       <c r="F30" s="25">
-        <f t="shared" ref="F30:F35" si="17">ROUND(B30/D30,3)</f>
+        <f t="shared" ref="F30:F35" si="33">ROUND(B30/D30,3)</f>
         <v>1.286</v>
       </c>
       <c r="G30" s="25">
@@ -53771,8 +54060,16 @@
         <f>ROUND(F30/Data!$B$51,3)</f>
         <v>0.161</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30" s="25">
+        <f t="shared" ref="I30:I35" si="34">POWER(2*A30,3)/C30</f>
+        <v>60353036984.08168</v>
+      </c>
+      <c r="J30" s="25">
+        <f t="shared" ref="J30:J35" si="35">POWER(2*A30,3)/D30</f>
+        <v>17122148815.142702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -53781,8 +54078,10 @@
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31" s="25"/>
+      <c r="J31" s="25"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
       <c r="B32" s="26"/>
       <c r="C32" s="26"/>
@@ -53791,8 +54090,10 @@
       <c r="F32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32" s="25"/>
+      <c r="J32" s="25"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="16">
         <v>10240</v>
       </c>
@@ -53809,11 +54110,11 @@
         <v>505.93</v>
       </c>
       <c r="E33" s="25">
-        <f t="shared" ref="E33:E35" si="18">ROUND(B33/C33,3)</f>
+        <f t="shared" ref="E33:E35" si="36">ROUND(B33/C33,3)</f>
         <v>3.7320000000000002</v>
       </c>
       <c r="F33" s="25">
-        <f t="shared" ref="F33:F35" si="19">ROUND(B33/D33,3)</f>
+        <f t="shared" ref="F33:F35" si="37">ROUND(B33/D33,3)</f>
         <v>1.2569999999999999</v>
       </c>
       <c r="G33" s="25">
@@ -53824,8 +54125,16 @@
         <f>ROUND(F33/Data!$B$51,3)</f>
         <v>0.157</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33" s="25">
+        <f t="shared" ref="I33:I35" si="38">POWER(2*A33,3)/C33</f>
+        <v>50394148555.337181</v>
+      </c>
+      <c r="J33" s="25">
+        <f t="shared" ref="J33:J35" si="39">POWER(2*A33,3)/D33</f>
+        <v>16978504125.076591</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="27"/>
       <c r="B34" s="26"/>
       <c r="C34" s="26"/>
@@ -53834,8 +54143,10 @@
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="27"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
@@ -53844,9 +54155,34 @@
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="111">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="J33:J35"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="J15:J17"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I18:I20"/>
     <mergeCell ref="H18:H20"/>
     <mergeCell ref="H21:H23"/>
     <mergeCell ref="H24:H26"/>
@@ -53874,7 +54210,6 @@
     <mergeCell ref="F27:F29"/>
     <mergeCell ref="F30:F32"/>
     <mergeCell ref="F33:F35"/>
-    <mergeCell ref="A1:F1"/>
     <mergeCell ref="E24:E26"/>
     <mergeCell ref="E27:E29"/>
     <mergeCell ref="E30:E32"/>

--- a/assign1/doc/cpd_data.xlsx
+++ b/assign1/doc/cpd_data.xlsx
@@ -8,29 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniorama/Desktop/LEIC/6_SEM/CPD/g17/assign1/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7718C5FD-B7E0-E64F-AD70-2AF5823D037F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{268E0496-F72D-E84C-A6AA-2563D538E189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Execution Time Comparisons" sheetId="4" r:id="rId2"/>
     <sheet name="Multi-core performance analysis" sheetId="5" r:id="rId3"/>
-    <sheet name="Time Analysis" sheetId="3" r:id="rId4"/>
+    <sheet name="Cache miss analysis" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Multi-core performance analysis'!$A$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Multi-core performance analysis'!$A$3:$A$35</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Multi-core performance analysis'!$E$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Multi-core performance analysis'!$E$3:$E$35</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Multi-core performance analysis'!$F$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Multi-core performance analysis'!$F$3:$F$35</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Multi-core performance analysis'!$F$2</definedName>
-    <definedName name="_xlchart.v2.11" hidden="1">'Multi-core performance analysis'!$F$3:$F$35</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Multi-core performance analysis'!$A$2</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Multi-core performance analysis'!$A$3:$A$35</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Multi-core performance analysis'!$E$2</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Multi-core performance analysis'!$E$3:$E$35</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Cache miss analysis'!$D$2</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Cache miss analysis'!$D$3:$D$35</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Cache miss analysis'!$A$2</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Cache miss analysis'!$A$3:$A$35</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Cache miss analysis'!$B$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Cache miss analysis'!$B$3:$B$35</definedName>
+    <definedName name="_xlchart.v2.0" hidden="1">'Cache miss analysis'!$A$2</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">'Cache miss analysis'!$A$3:$A$35</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">'Cache miss analysis'!$B$2</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">'Cache miss analysis'!$B$3:$B$35</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">'Cache miss analysis'!$D$2</definedName>
+    <definedName name="_xlchart.v2.5" hidden="1">'Cache miss analysis'!$D$3:$D$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>OnMult C++</t>
   </si>
@@ -88,16 +88,7 @@
     <t>OnMultLine Python</t>
   </si>
   <si>
-    <t>Matrix Size</t>
-  </si>
-  <si>
-    <t>Regular Multiplication</t>
-  </si>
-  <si>
     <t>Line Multiplication</t>
-  </si>
-  <si>
-    <t>OnMultBlock</t>
   </si>
   <si>
     <t>C++</t>
@@ -152,6 +143,21 @@
   </si>
   <si>
     <t>Line Multiplication - Time(s)</t>
+  </si>
+  <si>
+    <t>Block Multiplication (512) - Time(s)</t>
+  </si>
+  <si>
+    <t>Line Multiplication Multi-core v1</t>
+  </si>
+  <si>
+    <t>Line Multiplication Multi-core v2</t>
+  </si>
+  <si>
+    <t>L1 DCM - v1</t>
+  </si>
+  <si>
+    <t>L1 DCM - v2</t>
   </si>
 </sst>
 </file>
@@ -254,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,7 +290,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,7 +338,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1623,6 +1636,621 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Comparisons'!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Standard Multiplication - Time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$A$54:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$B$54:$B$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.095</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1880000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.236999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.023000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>68.037999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>114.255</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C070-6541-9EE3-8F151E5AC725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Comparisons'!$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Line Multiplication - Time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$A$54:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$C$54:$C$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>0.104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4790000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.103999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16.646000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.503</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>136.88900000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>330.24299999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>636.11300000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C070-6541-9EE3-8F151E5AC725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Execution Time Comparisons'!$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Block Multiplication (512) - Time(s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$A$54:$A$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10240</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Execution Time Comparisons'!$D$54:$D$86</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="21">
+                  <c:v>38.792000000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>108.232</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>351.87400000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>725.37199999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C070-6541-9EE3-8F151E5AC725}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1216315968"/>
+        <c:axId val="146732480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1216315968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="146732480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="146732480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1216315968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2341,7 +2969,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3018,7 +3646,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -3053,16 +3681,24 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Time C++</a:t>
+              <a:t>Multi-core</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> - Single Core</a:t>
+              <a:t> cache misses</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2697360017497813"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3095,50 +3731,37 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Time Analysis'!$B$2</c:f>
+              <c:f>'Cache miss analysis'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Regular Multiplication</c:v>
+                  <c:v>L1 DCM - v1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Time Analysis'!$A$3:$A$35</c:f>
+              <c:f>'Cache miss analysis'!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3177,41 +3800,52 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Time Analysis'!$B$3:$B$35</c:f>
+              <c:f>'Cache miss analysis'!$B$3:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.189</c:v>
+                  <c:v>3398104.3330000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.095</c:v>
+                  <c:v>15723141.333000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1880000000000002</c:v>
+                  <c:v>43268945.332999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17.236999999999998</c:v>
+                  <c:v>148335366.333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.023000000000003</c:v>
+                  <c:v>258691059.333</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>68.037999999999997</c:v>
+                  <c:v>551360986</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114.255</c:v>
+                  <c:v>847436362.66700006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2204414456</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7428610570.3330002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>17584122437</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34291767867.333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E6E6-AA4D-AAB5-AEBE45C72A12}"/>
+              <c16:uniqueId val="{00000000-0310-2743-8C1B-74D3A80F685D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3220,42 +3854,28 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Time Analysis'!$C$2</c:f>
+              <c:f>'Cache miss analysis'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Line Multiplication</c:v>
+                  <c:v>L1 DCM - v2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
             <c:numRef>
-              <c:f>'Time Analysis'!$A$3:$A$35</c:f>
+              <c:f>'Cache miss analysis'!$A$3:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
@@ -3294,53 +3914,52 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>'Time Analysis'!$C$3:$C$35</c:f>
+              <c:f>'Cache miss analysis'!$D$3:$D$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>0.104</c:v>
+                  <c:v>8454263.3330000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52800000000000002</c:v>
+                  <c:v>30010682.666999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.4790000000000001</c:v>
+                  <c:v>71800212.666999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.226</c:v>
+                  <c:v>138000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.0380000000000003</c:v>
+                  <c:v>236000000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.103999999999999</c:v>
+                  <c:v>370000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>16.646000000000001</c:v>
+                  <c:v>550333333.33299994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.503</c:v>
+                  <c:v>1230000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>136.88900000000001</c:v>
+                  <c:v>4103333333.3330002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>330.24299999999999</c:v>
+                  <c:v>9308871847.3330002</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>636.11300000000006</c:v>
+                <c:pt idx="30" formatCode="0.00E+00">
+                  <c:v>18293411410.667</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E6E6-AA4D-AAB5-AEBE45C72A12}"/>
+              <c16:uniqueId val="{00000001-0310-2743-8C1B-74D3A80F685D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3352,30 +3971,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095112047"/>
-        <c:axId val="2095113775"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2095112047"/>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="960897343"/>
+        <c:axId val="960752815"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="960897343"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3385,8 +3992,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3413,12 +4020,15 @@
             <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095113775"/>
+        <c:crossAx val="960752815"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="2095113775"/>
+        <c:axId val="960752815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3438,20 +4048,14 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3475,9 +4079,9 @@
             <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2095112047"/>
+        <c:crossAx val="960897343"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3716,6 +4320,46 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6335,6 +6979,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6409,6 +7558,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>173567</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2054257-FC7B-CEB2-FAA9-7F75CF586057}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6452,16 +7637,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>46566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>516467</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6493,23 +7678,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>694267</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>29633</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>287867</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AEA9BF8-FDCA-BA17-212F-1DDF365A4A7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB77F1F0-7FC6-0FA2-587A-01291FF416D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6733,8 +7918,8 @@
   </sheetPr>
   <dimension ref="A1:AP1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22:J24"/>
+    <sheetView tabSelected="1" topLeftCell="H6" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10667,7 +11852,7 @@
     <row r="50" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="10"/>
       <c r="B50" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C50" s="10"/>
       <c r="E50" s="4"/>
@@ -10708,7 +11893,7 @@
     </row>
     <row r="51" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B51" s="24">
         <v>8</v>
@@ -52800,19 +53985,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB20B9E0-B284-9841-AD90-2EF8F1599E54}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -52822,10 +54009,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -52991,7 +54178,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
@@ -53001,10 +54188,10 @@
         <v>5</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -53170,7 +54357,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B52" s="22"/>
       <c r="C52" s="22"/>
@@ -53179,141 +54366,335 @@
       <c r="A53" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>32</v>
+      <c r="B53" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="16">
         <v>600</v>
       </c>
+      <c r="B54" s="23">
+        <f>Data!D4</f>
+        <v>0.189</v>
+      </c>
+      <c r="C54" s="25">
+        <f>Data!L4</f>
+        <v>0.104</v>
+      </c>
+      <c r="D54" s="25"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="27"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="27"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="16">
         <v>1000</v>
       </c>
+      <c r="B57" s="23">
+        <f>Data!D7</f>
+        <v>1.095</v>
+      </c>
+      <c r="C57" s="25">
+        <f>Data!L7</f>
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="D57" s="25"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="27"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="27"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="16">
         <v>1400</v>
       </c>
+      <c r="B60" s="23">
+        <f>Data!D10</f>
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="C60" s="25">
+        <f>Data!L10</f>
+        <v>1.4790000000000001</v>
+      </c>
+      <c r="D60" s="25"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="27"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="27"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="16">
         <v>1800</v>
       </c>
+      <c r="B63" s="23">
+        <f>Data!D13</f>
+        <v>17.236999999999998</v>
+      </c>
+      <c r="C63" s="25">
+        <f>Data!L13</f>
+        <v>3.226</v>
+      </c>
+      <c r="D63" s="25"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="27"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B64" s="23"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="27"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B65" s="23"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="16">
         <v>2200</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B66" s="23">
+        <f>Data!D16</f>
+        <v>38.023000000000003</v>
+      </c>
+      <c r="C66" s="25">
+        <f>Data!L16</f>
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="D66" s="25"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="27"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B67" s="23"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="27"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B68" s="23"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="16">
         <v>2600</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B69" s="23">
+        <f>Data!D19</f>
+        <v>68.037999999999997</v>
+      </c>
+      <c r="C69" s="25">
+        <f>Data!L19</f>
+        <v>10.103999999999999</v>
+      </c>
+      <c r="D69" s="25"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="27"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B70" s="23"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="27"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B71" s="23"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="16">
         <v>3000</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B72" s="23">
+        <f>Data!D22</f>
+        <v>114.255</v>
+      </c>
+      <c r="C72" s="25">
+        <f>Data!L22</f>
+        <v>16.646000000000001</v>
+      </c>
+      <c r="D72" s="25"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="27"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B73" s="23"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="27"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B74" s="23"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="16">
         <v>4096</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B75" s="23"/>
+      <c r="C75" s="25">
+        <f>Data!L25</f>
+        <v>40.503</v>
+      </c>
+      <c r="D75" s="25">
+        <f>Data!U10</f>
+        <v>38.792000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="27"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B76" s="23"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="27"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B77" s="23"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="16">
         <v>6144</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B78" s="23"/>
+      <c r="C78" s="25">
+        <f>Data!L28</f>
+        <v>136.88900000000001</v>
+      </c>
+      <c r="D78" s="25">
+        <f>Data!U19</f>
+        <v>108.232</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="27"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B79" s="23"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="27"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B80" s="23"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="16">
         <v>8192</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B81" s="23"/>
+      <c r="C81" s="25">
+        <f>Data!L31</f>
+        <v>330.24299999999999</v>
+      </c>
+      <c r="D81" s="25">
+        <f>Data!U28</f>
+        <v>351.87400000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="27"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B82" s="23"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="27"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B83" s="23"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="16">
         <v>10240</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B84" s="23"/>
+      <c r="C84" s="25">
+        <f>Data!L34</f>
+        <v>636.11300000000006</v>
+      </c>
+      <c r="D84" s="25">
+        <f>Data!U37</f>
+        <v>725.37199999999996</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="27"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B85" s="23"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="27"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="89">
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="C84:C86"/>
+    <mergeCell ref="D54:D56"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="D63:D65"/>
+    <mergeCell ref="D66:D68"/>
+    <mergeCell ref="D69:D71"/>
+    <mergeCell ref="D72:D74"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D81:D83"/>
+    <mergeCell ref="D84:D86"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="A81:A83"/>
     <mergeCell ref="A84:A86"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B86"/>
     <mergeCell ref="A66:A68"/>
     <mergeCell ref="A69:A71"/>
     <mergeCell ref="A72:A74"/>
@@ -53324,6 +54705,10 @@
     <mergeCell ref="A57:A59"/>
     <mergeCell ref="A60:A62"/>
     <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C63:C65"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B23"/>
@@ -53384,7 +54769,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A35"/>
+      <selection activeCell="J3" sqref="J3:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -53399,7 +54784,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -53416,31 +54801,31 @@
         <v>5</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
-      </c>
       <c r="J2" s="12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -54278,308 +55663,491 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{201A5800-5FCA-194D-8569-9B1CEC98C6E1}">
-  <dimension ref="A2:D35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F59C700-E74F-6843-820C-964EE896C87C}">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="13">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="25"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="16">
         <v>600</v>
       </c>
-      <c r="B3" s="23">
-        <f>Data!D4</f>
-        <v>0.189</v>
-      </c>
-      <c r="C3" s="23">
-        <f>Data!L4</f>
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="13">
+      <c r="B3" s="25">
+        <f>Data!AE4</f>
+        <v>3398104.3330000001</v>
+      </c>
+      <c r="C3" s="25">
+        <f>Data!AG4</f>
+        <v>7137844.3329999996</v>
+      </c>
+      <c r="D3" s="25">
+        <f>Data!AM4</f>
+        <v>8454263.3330000006</v>
+      </c>
+      <c r="E3" s="25">
+        <f>Data!AO4</f>
+        <v>33985889.332999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="27"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="27"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="16">
         <v>1000</v>
       </c>
-      <c r="B6" s="23">
-        <f>Data!D7</f>
-        <v>1.095</v>
-      </c>
-      <c r="C6" s="23">
-        <f>Data!L7</f>
-        <v>0.52800000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="13">
+      <c r="B6" s="25">
+        <f>Data!AE7</f>
+        <v>15723141.333000001</v>
+      </c>
+      <c r="C6" s="25">
+        <f>Data!AG7</f>
+        <v>32736727</v>
+      </c>
+      <c r="D6" s="25">
+        <f>Data!AM7</f>
+        <v>30010682.666999999</v>
+      </c>
+      <c r="E6" s="25">
+        <f>Data!AO7</f>
+        <v>113000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="27"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="27"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="16">
         <v>1400</v>
       </c>
-      <c r="B9" s="23">
-        <f>Data!D10</f>
-        <v>3.1880000000000002</v>
-      </c>
-      <c r="C9" s="23">
-        <f>Data!L10</f>
-        <v>1.4790000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="13">
+      <c r="B9" s="25">
+        <f>Data!AE10</f>
+        <v>43268945.332999997</v>
+      </c>
+      <c r="C9" s="25">
+        <f>Data!AG10</f>
+        <v>86497122.333000004</v>
+      </c>
+      <c r="D9" s="25">
+        <f>Data!AM10</f>
+        <v>71800212.666999996</v>
+      </c>
+      <c r="E9" s="25">
+        <f>Data!AO10</f>
+        <v>230000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="27"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="16">
         <v>1800</v>
       </c>
-      <c r="B12" s="23">
-        <f>Data!D13</f>
-        <v>17.236999999999998</v>
-      </c>
-      <c r="C12" s="23">
-        <f>Data!L13</f>
-        <v>3.226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="13">
+      <c r="B12" s="25">
+        <f>Data!AE13</f>
+        <v>148335366.333</v>
+      </c>
+      <c r="C12" s="25">
+        <f>Data!AG13</f>
+        <v>225244141</v>
+      </c>
+      <c r="D12" s="25">
+        <f>Data!AM13</f>
+        <v>138000000</v>
+      </c>
+      <c r="E12" s="25">
+        <f>Data!AO13</f>
+        <v>359666666.667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="27"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="27"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="16">
         <v>2200</v>
       </c>
-      <c r="B15" s="23">
-        <f>Data!D16</f>
-        <v>38.023000000000003</v>
-      </c>
-      <c r="C15" s="23">
-        <f>Data!L16</f>
-        <v>6.0380000000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="13">
+      <c r="B15" s="25">
+        <f>Data!AE16</f>
+        <v>258691059.333</v>
+      </c>
+      <c r="C15" s="25">
+        <f>Data!AG16</f>
+        <v>320686439.667</v>
+      </c>
+      <c r="D15" s="25">
+        <f>Data!AM16</f>
+        <v>236000000</v>
+      </c>
+      <c r="E15" s="25">
+        <f>Data!AO16</f>
+        <v>554333333.33299994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="16">
         <v>2600</v>
       </c>
-      <c r="B18" s="23">
-        <f>Data!D19</f>
-        <v>68.037999999999997</v>
-      </c>
-      <c r="C18" s="23">
-        <f>Data!L19</f>
-        <v>10.103999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="13">
+      <c r="B18" s="25">
+        <f>Data!AE19</f>
+        <v>551360986</v>
+      </c>
+      <c r="C18" s="25">
+        <f>Data!AG19</f>
+        <v>530618521</v>
+      </c>
+      <c r="D18" s="25">
+        <f>Data!AM19</f>
+        <v>370000000</v>
+      </c>
+      <c r="E18" s="25">
+        <f>Data!AO19</f>
+        <v>830333333.33299994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="27"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="27"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="16">
         <v>3000</v>
       </c>
-      <c r="B21" s="23">
-        <f>Data!D22</f>
-        <v>114.255</v>
-      </c>
-      <c r="C21" s="23">
-        <f>Data!L22</f>
-        <v>16.646000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" s="13">
+      <c r="B21" s="25">
+        <f>Data!AE22</f>
+        <v>847436362.66700006</v>
+      </c>
+      <c r="C21" s="25">
+        <f>Data!AG22</f>
+        <v>833762694</v>
+      </c>
+      <c r="D21" s="25">
+        <f>Data!AM22</f>
+        <v>550333333.33299994</v>
+      </c>
+      <c r="E21" s="25">
+        <f>Data!AO22</f>
+        <v>1180000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="27"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="27"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="16">
         <v>4096</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23">
-        <f>Data!L25</f>
-        <v>40.503</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" s="13">
+      <c r="B24" s="25">
+        <f>Data!AE25</f>
+        <v>2204414456</v>
+      </c>
+      <c r="C24" s="25">
+        <f>Data!AG25</f>
+        <v>2143498680.6670001</v>
+      </c>
+      <c r="D24" s="25">
+        <f>Data!AM25</f>
+        <v>1230000000</v>
+      </c>
+      <c r="E24" s="25">
+        <f>Data!AO25</f>
+        <v>2296666666.6669998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="27"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="27"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="16">
         <v>6144</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23">
-        <f>Data!L28</f>
-        <v>136.88900000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" s="14"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" s="14"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" s="13">
+      <c r="B27" s="25">
+        <f>Data!AE28</f>
+        <v>7428610570.3330002</v>
+      </c>
+      <c r="C27" s="25">
+        <f>Data!AG28</f>
+        <v>7114366067</v>
+      </c>
+      <c r="D27" s="25">
+        <f>Data!AM28</f>
+        <v>4103333333.3330002</v>
+      </c>
+      <c r="E27" s="25">
+        <f>Data!AO28</f>
+        <v>7566666666.6669998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="27"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="16">
         <v>8192</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23">
-        <f>Data!L31</f>
-        <v>330.24299999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" s="14"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" s="14"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" s="13">
+      <c r="B30" s="25">
+        <f>Data!AE31</f>
+        <v>17584122437</v>
+      </c>
+      <c r="C30" s="25">
+        <f>Data!AG31</f>
+        <v>16456253821.333</v>
+      </c>
+      <c r="D30" s="25">
+        <f>Data!AM31</f>
+        <v>9308871847.3330002</v>
+      </c>
+      <c r="E30" s="25">
+        <f>Data!AO31</f>
+        <v>14643080937.333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="27"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="27"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="16">
         <v>10240</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23">
-        <f>Data!L34</f>
-        <v>636.11300000000006</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" s="14"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" s="14"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="B33" s="25">
+        <f>Data!AE34</f>
+        <v>34291767867.333</v>
+      </c>
+      <c r="C33" s="25">
+        <f>Data!AG34</f>
+        <v>31721471553.333</v>
+      </c>
+      <c r="D33" s="30">
+        <f>Data!AM34</f>
+        <v>18293411410.667</v>
+      </c>
+      <c r="E33" s="25">
+        <f>Data!AO34</f>
+        <v>28516365693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="27"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="27"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A35"/>
+  <mergeCells count="57">
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C33:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
